--- a/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
+++ b/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
@@ -128,10 +128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1297"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1276" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1300" activeCellId="0" sqref="D1300"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A694" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A722" activeCellId="0" sqref="722:1297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6627,5190 +6627,582 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="1" t="n">
-        <f aca="false">A721+TIME(0,10,0)</f>
-        <v>43226.0000000006</v>
-      </c>
-      <c r="B722" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="1" t="n">
-        <f aca="false">A722+TIME(0,10,0)</f>
-        <v>43226.006944445</v>
-      </c>
-      <c r="B723" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="1" t="n">
-        <f aca="false">A723+TIME(0,10,0)</f>
-        <v>43226.0138888895</v>
-      </c>
-      <c r="B724" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="1" t="n">
-        <f aca="false">A724+TIME(0,10,0)</f>
-        <v>43226.0208333339</v>
-      </c>
-      <c r="B725" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="1" t="n">
-        <f aca="false">A725+TIME(0,10,0)</f>
-        <v>43226.0277777784</v>
-      </c>
-      <c r="B726" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="1" t="n">
-        <f aca="false">A726+TIME(0,10,0)</f>
-        <v>43226.0347222228</v>
-      </c>
-      <c r="B727" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="1" t="n">
-        <f aca="false">A727+TIME(0,10,0)</f>
-        <v>43226.0416666673</v>
-      </c>
-      <c r="B728" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="1" t="n">
-        <f aca="false">A728+TIME(0,10,0)</f>
-        <v>43226.0486111117</v>
-      </c>
-      <c r="B729" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="1" t="n">
-        <f aca="false">A729+TIME(0,10,0)</f>
-        <v>43226.0555555561</v>
-      </c>
-      <c r="B730" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="1" t="n">
-        <f aca="false">A730+TIME(0,10,0)</f>
-        <v>43226.0625000006</v>
-      </c>
-      <c r="B731" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="1" t="n">
-        <f aca="false">A731+TIME(0,10,0)</f>
-        <v>43226.069444445</v>
-      </c>
-      <c r="B732" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="1" t="n">
-        <f aca="false">A732+TIME(0,10,0)</f>
-        <v>43226.0763888895</v>
-      </c>
-      <c r="B733" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="1" t="n">
-        <f aca="false">A733+TIME(0,10,0)</f>
-        <v>43226.0833333339</v>
-      </c>
-      <c r="B734" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="1" t="n">
-        <f aca="false">A734+TIME(0,10,0)</f>
-        <v>43226.0902777784</v>
-      </c>
-      <c r="B735" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="1" t="n">
-        <f aca="false">A735+TIME(0,10,0)</f>
-        <v>43226.0972222228</v>
-      </c>
-      <c r="B736" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="1" t="n">
-        <f aca="false">A736+TIME(0,10,0)</f>
-        <v>43226.1041666673</v>
-      </c>
-      <c r="B737" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="1" t="n">
-        <f aca="false">A737+TIME(0,10,0)</f>
-        <v>43226.1111111117</v>
-      </c>
-      <c r="B738" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="1" t="n">
-        <f aca="false">A738+TIME(0,10,0)</f>
-        <v>43226.1180555562</v>
-      </c>
-      <c r="B739" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="1" t="n">
-        <f aca="false">A739+TIME(0,10,0)</f>
-        <v>43226.1250000006</v>
-      </c>
-      <c r="B740" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="1" t="n">
-        <f aca="false">A740+TIME(0,10,0)</f>
-        <v>43226.131944445</v>
-      </c>
-      <c r="B741" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="1" t="n">
-        <f aca="false">A741+TIME(0,10,0)</f>
-        <v>43226.1388888895</v>
-      </c>
-      <c r="B742" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="1" t="n">
-        <f aca="false">A742+TIME(0,10,0)</f>
-        <v>43226.1458333339</v>
-      </c>
-      <c r="B743" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="1" t="n">
-        <f aca="false">A743+TIME(0,10,0)</f>
-        <v>43226.1527777784</v>
-      </c>
-      <c r="B744" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="1" t="n">
-        <f aca="false">A744+TIME(0,10,0)</f>
-        <v>43226.1597222228</v>
-      </c>
-      <c r="B745" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="1" t="n">
-        <f aca="false">A745+TIME(0,10,0)</f>
-        <v>43226.1666666673</v>
-      </c>
-      <c r="B746" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="1" t="n">
-        <f aca="false">A746+TIME(0,10,0)</f>
-        <v>43226.1736111117</v>
-      </c>
-      <c r="B747" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="1" t="n">
-        <f aca="false">A747+TIME(0,10,0)</f>
-        <v>43226.1805555562</v>
-      </c>
-      <c r="B748" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="1" t="n">
-        <f aca="false">A748+TIME(0,10,0)</f>
-        <v>43226.1875000006</v>
-      </c>
-      <c r="B749" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="1" t="n">
-        <f aca="false">A749+TIME(0,10,0)</f>
-        <v>43226.1944444451</v>
-      </c>
-      <c r="B750" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="1" t="n">
-        <f aca="false">A750+TIME(0,10,0)</f>
-        <v>43226.2013888895</v>
-      </c>
-      <c r="B751" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="1" t="n">
-        <f aca="false">A751+TIME(0,10,0)</f>
-        <v>43226.2083333339</v>
-      </c>
-      <c r="B752" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="1" t="n">
-        <f aca="false">A752+TIME(0,10,0)</f>
-        <v>43226.2152777784</v>
-      </c>
-      <c r="B753" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="1" t="n">
-        <f aca="false">A753+TIME(0,10,0)</f>
-        <v>43226.2222222228</v>
-      </c>
-      <c r="B754" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="1" t="n">
-        <f aca="false">A754+TIME(0,10,0)</f>
-        <v>43226.2291666673</v>
-      </c>
-      <c r="B755" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="1" t="n">
-        <f aca="false">A755+TIME(0,10,0)</f>
-        <v>43226.2361111117</v>
-      </c>
-      <c r="B756" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="1" t="n">
-        <f aca="false">A756+TIME(0,10,0)</f>
-        <v>43226.2430555562</v>
-      </c>
-      <c r="B757" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="1" t="n">
-        <f aca="false">A757+TIME(0,10,0)</f>
-        <v>43226.2500000006</v>
-      </c>
-      <c r="B758" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="1" t="n">
-        <f aca="false">A758+TIME(0,10,0)</f>
-        <v>43226.2569444451</v>
-      </c>
-      <c r="B759" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="1" t="n">
-        <f aca="false">A759+TIME(0,10,0)</f>
-        <v>43226.2638888895</v>
-      </c>
-      <c r="B760" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="1" t="n">
-        <f aca="false">A760+TIME(0,10,0)</f>
-        <v>43226.270833334</v>
-      </c>
-      <c r="B761" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="1" t="n">
-        <f aca="false">A761+TIME(0,10,0)</f>
-        <v>43226.2777777784</v>
-      </c>
-      <c r="B762" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="1" t="n">
-        <f aca="false">A762+TIME(0,10,0)</f>
-        <v>43226.2847222228</v>
-      </c>
-      <c r="B763" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="1" t="n">
-        <f aca="false">A763+TIME(0,10,0)</f>
-        <v>43226.2916666673</v>
-      </c>
-      <c r="B764" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="1" t="n">
-        <f aca="false">A764+TIME(0,10,0)</f>
-        <v>43226.2986111117</v>
-      </c>
-      <c r="B765" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="1" t="n">
-        <f aca="false">A765+TIME(0,10,0)</f>
-        <v>43226.3055555562</v>
-      </c>
-      <c r="B766" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="1" t="n">
-        <f aca="false">A766+TIME(0,10,0)</f>
-        <v>43226.3125000006</v>
-      </c>
-      <c r="B767" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="1" t="n">
-        <f aca="false">A767+TIME(0,10,0)</f>
-        <v>43226.3194444451</v>
-      </c>
-      <c r="B768" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="1" t="n">
-        <f aca="false">A768+TIME(0,10,0)</f>
-        <v>43226.3263888895</v>
-      </c>
-      <c r="B769" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="1" t="n">
-        <f aca="false">A769+TIME(0,10,0)</f>
-        <v>43226.333333334</v>
-      </c>
-      <c r="B770" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="1" t="n">
-        <f aca="false">A770+TIME(0,10,0)</f>
-        <v>43226.3402777784</v>
-      </c>
-      <c r="B771" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="1" t="n">
-        <f aca="false">A771+TIME(0,10,0)</f>
-        <v>43226.3472222228</v>
-      </c>
-      <c r="B772" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="1" t="n">
-        <f aca="false">A772+TIME(0,10,0)</f>
-        <v>43226.3541666673</v>
-      </c>
-      <c r="B773" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="1" t="n">
-        <f aca="false">A773+TIME(0,10,0)</f>
-        <v>43226.3611111117</v>
-      </c>
-      <c r="B774" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="1" t="n">
-        <f aca="false">A774+TIME(0,10,0)</f>
-        <v>43226.3680555562</v>
-      </c>
-      <c r="B775" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="1" t="n">
-        <f aca="false">A775+TIME(0,10,0)</f>
-        <v>43226.3750000006</v>
-      </c>
-      <c r="B776" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="1" t="n">
-        <f aca="false">A776+TIME(0,10,0)</f>
-        <v>43226.3819444451</v>
-      </c>
-      <c r="B777" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="1" t="n">
-        <f aca="false">A777+TIME(0,10,0)</f>
-        <v>43226.3888888895</v>
-      </c>
-      <c r="B778" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="1" t="n">
-        <f aca="false">A778+TIME(0,10,0)</f>
-        <v>43226.395833334</v>
-      </c>
-      <c r="B779" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="1" t="n">
-        <f aca="false">A779+TIME(0,10,0)</f>
-        <v>43226.4027777784</v>
-      </c>
-      <c r="B780" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="1" t="n">
-        <f aca="false">A780+TIME(0,10,0)</f>
-        <v>43226.4097222229</v>
-      </c>
-      <c r="B781" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="1" t="n">
-        <f aca="false">A781+TIME(0,10,0)</f>
-        <v>43226.4166666673</v>
-      </c>
-      <c r="B782" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="1" t="n">
-        <f aca="false">A782+TIME(0,10,0)</f>
-        <v>43226.4236111117</v>
-      </c>
-      <c r="B783" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="1" t="n">
-        <f aca="false">A783+TIME(0,10,0)</f>
-        <v>43226.4305555562</v>
-      </c>
-      <c r="B784" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="1" t="n">
-        <f aca="false">A784+TIME(0,10,0)</f>
-        <v>43226.4375000006</v>
-      </c>
-      <c r="B785" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="1" t="n">
-        <f aca="false">A785+TIME(0,10,0)</f>
-        <v>43226.4444444451</v>
-      </c>
-      <c r="B786" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="1" t="n">
-        <f aca="false">A786+TIME(0,10,0)</f>
-        <v>43226.4513888895</v>
-      </c>
-      <c r="B787" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="1" t="n">
-        <f aca="false">A787+TIME(0,10,0)</f>
-        <v>43226.458333334</v>
-      </c>
-      <c r="B788" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="1" t="n">
-        <f aca="false">A788+TIME(0,10,0)</f>
-        <v>43226.4652777784</v>
-      </c>
-      <c r="B789" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="1" t="n">
-        <f aca="false">A789+TIME(0,10,0)</f>
-        <v>43226.4722222229</v>
-      </c>
-      <c r="B790" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="1" t="n">
-        <f aca="false">A790+TIME(0,10,0)</f>
-        <v>43226.4791666673</v>
-      </c>
-      <c r="B791" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="1" t="n">
-        <f aca="false">A791+TIME(0,10,0)</f>
-        <v>43226.4861111118</v>
-      </c>
-      <c r="B792" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="1" t="n">
-        <f aca="false">A792+TIME(0,10,0)</f>
-        <v>43226.4930555562</v>
-      </c>
-      <c r="B793" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="1" t="n">
-        <f aca="false">A793+TIME(0,10,0)</f>
-        <v>43226.5000000006</v>
-      </c>
-      <c r="B794" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="1" t="n">
-        <f aca="false">A794+TIME(0,10,0)</f>
-        <v>43226.5069444451</v>
-      </c>
-      <c r="B795" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="1" t="n">
-        <f aca="false">A795+TIME(0,10,0)</f>
-        <v>43226.5138888895</v>
-      </c>
-      <c r="B796" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="1" t="n">
-        <f aca="false">A796+TIME(0,10,0)</f>
-        <v>43226.520833334</v>
-      </c>
-      <c r="B797" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="1" t="n">
-        <f aca="false">A797+TIME(0,10,0)</f>
-        <v>43226.5277777784</v>
-      </c>
-      <c r="B798" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="1" t="n">
-        <f aca="false">A798+TIME(0,10,0)</f>
-        <v>43226.5347222229</v>
-      </c>
-      <c r="B799" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="1" t="n">
-        <f aca="false">A799+TIME(0,10,0)</f>
-        <v>43226.5416666673</v>
-      </c>
-      <c r="B800" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="1" t="n">
-        <f aca="false">A800+TIME(0,10,0)</f>
-        <v>43226.5486111118</v>
-      </c>
-      <c r="B801" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="1" t="n">
-        <f aca="false">A801+TIME(0,10,0)</f>
-        <v>43226.5555555562</v>
-      </c>
-      <c r="B802" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="1" t="n">
-        <f aca="false">A802+TIME(0,10,0)</f>
-        <v>43226.5625000006</v>
-      </c>
-      <c r="B803" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="1" t="n">
-        <f aca="false">A803+TIME(0,10,0)</f>
-        <v>43226.5694444451</v>
-      </c>
-      <c r="B804" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="1" t="n">
-        <f aca="false">A804+TIME(0,10,0)</f>
-        <v>43226.5763888895</v>
-      </c>
-      <c r="B805" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="1" t="n">
-        <f aca="false">A805+TIME(0,10,0)</f>
-        <v>43226.583333334</v>
-      </c>
-      <c r="B806" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="1" t="n">
-        <f aca="false">A806+TIME(0,10,0)</f>
-        <v>43226.5902777784</v>
-      </c>
-      <c r="B807" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="1" t="n">
-        <f aca="false">A807+TIME(0,10,0)</f>
-        <v>43226.5972222229</v>
-      </c>
-      <c r="B808" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="1" t="n">
-        <f aca="false">A808+TIME(0,10,0)</f>
-        <v>43226.6041666673</v>
-      </c>
-      <c r="B809" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="1" t="n">
-        <f aca="false">A809+TIME(0,10,0)</f>
-        <v>43226.6111111118</v>
-      </c>
-      <c r="B810" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="1" t="n">
-        <f aca="false">A810+TIME(0,10,0)</f>
-        <v>43226.6180555562</v>
-      </c>
-      <c r="B811" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="1" t="n">
-        <f aca="false">A811+TIME(0,10,0)</f>
-        <v>43226.6250000007</v>
-      </c>
-      <c r="B812" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="1" t="n">
-        <f aca="false">A812+TIME(0,10,0)</f>
-        <v>43226.6319444451</v>
-      </c>
-      <c r="B813" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="1" t="n">
-        <f aca="false">A813+TIME(0,10,0)</f>
-        <v>43226.6388888896</v>
-      </c>
-      <c r="B814" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="1" t="n">
-        <f aca="false">A814+TIME(0,10,0)</f>
-        <v>43226.645833334</v>
-      </c>
-      <c r="B815" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="1" t="n">
-        <f aca="false">A815+TIME(0,10,0)</f>
-        <v>43226.6527777784</v>
-      </c>
-      <c r="B816" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="1" t="n">
-        <f aca="false">A816+TIME(0,10,0)</f>
-        <v>43226.6597222229</v>
-      </c>
-      <c r="B817" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="1" t="n">
-        <f aca="false">A817+TIME(0,10,0)</f>
-        <v>43226.6666666673</v>
-      </c>
-      <c r="B818" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="1" t="n">
-        <f aca="false">A818+TIME(0,10,0)</f>
-        <v>43226.6736111118</v>
-      </c>
-      <c r="B819" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="1" t="n">
-        <f aca="false">A819+TIME(0,10,0)</f>
-        <v>43226.6805555562</v>
-      </c>
-      <c r="B820" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="1" t="n">
-        <f aca="false">A820+TIME(0,10,0)</f>
-        <v>43226.6875000007</v>
-      </c>
-      <c r="B821" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="1" t="n">
-        <f aca="false">A821+TIME(0,10,0)</f>
-        <v>43226.6944444451</v>
-      </c>
-      <c r="B822" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="1" t="n">
-        <f aca="false">A822+TIME(0,10,0)</f>
-        <v>43226.7013888896</v>
-      </c>
-      <c r="B823" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="1" t="n">
-        <f aca="false">A823+TIME(0,10,0)</f>
-        <v>43226.708333334</v>
-      </c>
-      <c r="B824" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="1" t="n">
-        <f aca="false">A824+TIME(0,10,0)</f>
-        <v>43226.7152777784</v>
-      </c>
-      <c r="B825" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="1" t="n">
-        <f aca="false">A825+TIME(0,10,0)</f>
-        <v>43226.7222222229</v>
-      </c>
-      <c r="B826" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="1" t="n">
-        <f aca="false">A826+TIME(0,10,0)</f>
-        <v>43226.7291666673</v>
-      </c>
-      <c r="B827" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="1" t="n">
-        <f aca="false">A827+TIME(0,10,0)</f>
-        <v>43226.7361111118</v>
-      </c>
-      <c r="B828" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="1" t="n">
-        <f aca="false">A828+TIME(0,10,0)</f>
-        <v>43226.7430555562</v>
-      </c>
-      <c r="B829" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="1" t="n">
-        <f aca="false">A829+TIME(0,10,0)</f>
-        <v>43226.7500000007</v>
-      </c>
-      <c r="B830" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="1" t="n">
-        <f aca="false">A830+TIME(0,10,0)</f>
-        <v>43226.7569444451</v>
-      </c>
-      <c r="B831" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="1" t="n">
-        <f aca="false">A831+TIME(0,10,0)</f>
-        <v>43226.7638888896</v>
-      </c>
-      <c r="B832" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="1" t="n">
-        <f aca="false">A832+TIME(0,10,0)</f>
-        <v>43226.770833334</v>
-      </c>
-      <c r="B833" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="1" t="n">
-        <f aca="false">A833+TIME(0,10,0)</f>
-        <v>43226.7777777785</v>
-      </c>
-      <c r="B834" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="1" t="n">
-        <f aca="false">A834+TIME(0,10,0)</f>
-        <v>43226.7847222229</v>
-      </c>
-      <c r="B835" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="1" t="n">
-        <f aca="false">A835+TIME(0,10,0)</f>
-        <v>43226.7916666673</v>
-      </c>
-      <c r="B836" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="1" t="n">
-        <f aca="false">A836+TIME(0,10,0)</f>
-        <v>43226.7986111118</v>
-      </c>
-      <c r="B837" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="1" t="n">
-        <f aca="false">A837+TIME(0,10,0)</f>
-        <v>43226.8055555562</v>
-      </c>
-      <c r="B838" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="1" t="n">
-        <f aca="false">A838+TIME(0,10,0)</f>
-        <v>43226.8125000007</v>
-      </c>
-      <c r="B839" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="1" t="n">
-        <f aca="false">A839+TIME(0,10,0)</f>
-        <v>43226.8194444451</v>
-      </c>
-      <c r="B840" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="1" t="n">
-        <f aca="false">A840+TIME(0,10,0)</f>
-        <v>43226.8263888896</v>
-      </c>
-      <c r="B841" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="1" t="n">
-        <f aca="false">A841+TIME(0,10,0)</f>
-        <v>43226.833333334</v>
-      </c>
-      <c r="B842" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="1" t="n">
-        <f aca="false">A842+TIME(0,10,0)</f>
-        <v>43226.8402777785</v>
-      </c>
-      <c r="B843" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="1" t="n">
-        <f aca="false">A843+TIME(0,10,0)</f>
-        <v>43226.8472222229</v>
-      </c>
-      <c r="B844" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="1" t="n">
-        <f aca="false">A844+TIME(0,10,0)</f>
-        <v>43226.8541666674</v>
-      </c>
-      <c r="B845" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="1" t="n">
-        <f aca="false">A845+TIME(0,10,0)</f>
-        <v>43226.8611111118</v>
-      </c>
-      <c r="B846" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="1" t="n">
-        <f aca="false">A846+TIME(0,10,0)</f>
-        <v>43226.8680555562</v>
-      </c>
-      <c r="B847" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="1" t="n">
-        <f aca="false">A847+TIME(0,10,0)</f>
-        <v>43226.8750000007</v>
-      </c>
-      <c r="B848" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="1" t="n">
-        <f aca="false">A848+TIME(0,10,0)</f>
-        <v>43226.8819444451</v>
-      </c>
-      <c r="B849" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="1" t="n">
-        <f aca="false">A849+TIME(0,10,0)</f>
-        <v>43226.8888888896</v>
-      </c>
-      <c r="B850" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="1" t="n">
-        <f aca="false">A850+TIME(0,10,0)</f>
-        <v>43226.895833334</v>
-      </c>
-      <c r="B851" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="1" t="n">
-        <f aca="false">A851+TIME(0,10,0)</f>
-        <v>43226.9027777785</v>
-      </c>
-      <c r="B852" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="1" t="n">
-        <f aca="false">A852+TIME(0,10,0)</f>
-        <v>43226.9097222229</v>
-      </c>
-      <c r="B853" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="1" t="n">
-        <f aca="false">A853+TIME(0,10,0)</f>
-        <v>43226.9166666674</v>
-      </c>
-      <c r="B854" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="1" t="n">
-        <f aca="false">A854+TIME(0,10,0)</f>
-        <v>43226.9236111118</v>
-      </c>
-      <c r="B855" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="1" t="n">
-        <f aca="false">A855+TIME(0,10,0)</f>
-        <v>43226.9305555562</v>
-      </c>
-      <c r="B856" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="1" t="n">
-        <f aca="false">A856+TIME(0,10,0)</f>
-        <v>43226.9375000007</v>
-      </c>
-      <c r="B857" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="1" t="n">
-        <f aca="false">A857+TIME(0,10,0)</f>
-        <v>43226.9444444451</v>
-      </c>
-      <c r="B858" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="1" t="n">
-        <f aca="false">A858+TIME(0,10,0)</f>
-        <v>43226.9513888896</v>
-      </c>
-      <c r="B859" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="1" t="n">
-        <f aca="false">A859+TIME(0,10,0)</f>
-        <v>43226.958333334</v>
-      </c>
-      <c r="B860" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="1" t="n">
-        <f aca="false">A860+TIME(0,10,0)</f>
-        <v>43226.9652777785</v>
-      </c>
-      <c r="B861" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="1" t="n">
-        <f aca="false">A861+TIME(0,10,0)</f>
-        <v>43226.9722222229</v>
-      </c>
-      <c r="B862" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="1" t="n">
-        <f aca="false">A862+TIME(0,10,0)</f>
-        <v>43226.9791666674</v>
-      </c>
-      <c r="B863" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="1" t="n">
-        <f aca="false">A863+TIME(0,10,0)</f>
-        <v>43226.9861111118</v>
-      </c>
-      <c r="B864" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="1" t="n">
-        <f aca="false">A864+TIME(0,10,0)</f>
-        <v>43226.9930555563</v>
-      </c>
-      <c r="B865" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="1" t="n">
-        <f aca="false">A865+TIME(0,10,0)</f>
-        <v>43227.0000000007</v>
-      </c>
-      <c r="B866" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="1" t="n">
-        <f aca="false">A866+TIME(0,10,0)</f>
-        <v>43227.0069444451</v>
-      </c>
-      <c r="B867" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="1" t="n">
-        <f aca="false">A867+TIME(0,10,0)</f>
-        <v>43227.0138888896</v>
-      </c>
-      <c r="B868" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="1" t="n">
-        <f aca="false">A868+TIME(0,10,0)</f>
-        <v>43227.020833334</v>
-      </c>
-      <c r="B869" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="1" t="n">
-        <f aca="false">A869+TIME(0,10,0)</f>
-        <v>43227.0277777785</v>
-      </c>
-      <c r="B870" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="1" t="n">
-        <f aca="false">A870+TIME(0,10,0)</f>
-        <v>43227.0347222229</v>
-      </c>
-      <c r="B871" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="1" t="n">
-        <f aca="false">A871+TIME(0,10,0)</f>
-        <v>43227.0416666674</v>
-      </c>
-      <c r="B872" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="1" t="n">
-        <f aca="false">A872+TIME(0,10,0)</f>
-        <v>43227.0486111118</v>
-      </c>
-      <c r="B873" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="1" t="n">
-        <f aca="false">A873+TIME(0,10,0)</f>
-        <v>43227.0555555563</v>
-      </c>
-      <c r="B874" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="1" t="n">
-        <f aca="false">A874+TIME(0,10,0)</f>
-        <v>43227.0625000007</v>
-      </c>
-      <c r="B875" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="1" t="n">
-        <f aca="false">A875+TIME(0,10,0)</f>
-        <v>43227.0694444452</v>
-      </c>
-      <c r="B876" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="1" t="n">
-        <f aca="false">A876+TIME(0,10,0)</f>
-        <v>43227.0763888896</v>
-      </c>
-      <c r="B877" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="1" t="n">
-        <f aca="false">A877+TIME(0,10,0)</f>
-        <v>43227.083333334</v>
-      </c>
-      <c r="B878" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="1" t="n">
-        <f aca="false">A878+TIME(0,10,0)</f>
-        <v>43227.0902777785</v>
-      </c>
-      <c r="B879" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="1" t="n">
-        <f aca="false">A879+TIME(0,10,0)</f>
-        <v>43227.0972222229</v>
-      </c>
-      <c r="B880" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="1" t="n">
-        <f aca="false">A880+TIME(0,10,0)</f>
-        <v>43227.1041666674</v>
-      </c>
-      <c r="B881" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="1" t="n">
-        <f aca="false">A881+TIME(0,10,0)</f>
-        <v>43227.1111111118</v>
-      </c>
-      <c r="B882" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="1" t="n">
-        <f aca="false">A882+TIME(0,10,0)</f>
-        <v>43227.1180555563</v>
-      </c>
-      <c r="B883" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="1" t="n">
-        <f aca="false">A883+TIME(0,10,0)</f>
-        <v>43227.1250000007</v>
-      </c>
-      <c r="B884" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="1" t="n">
-        <f aca="false">A884+TIME(0,10,0)</f>
-        <v>43227.1319444452</v>
-      </c>
-      <c r="B885" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="1" t="n">
-        <f aca="false">A885+TIME(0,10,0)</f>
-        <v>43227.1388888896</v>
-      </c>
-      <c r="B886" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="1" t="n">
-        <f aca="false">A886+TIME(0,10,0)</f>
-        <v>43227.1458333341</v>
-      </c>
-      <c r="B887" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="1" t="n">
-        <f aca="false">A887+TIME(0,10,0)</f>
-        <v>43227.1527777785</v>
-      </c>
-      <c r="B888" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="1" t="n">
-        <f aca="false">A888+TIME(0,10,0)</f>
-        <v>43227.1597222229</v>
-      </c>
-      <c r="B889" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="1" t="n">
-        <f aca="false">A889+TIME(0,10,0)</f>
-        <v>43227.1666666674</v>
-      </c>
-      <c r="B890" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="1" t="n">
-        <f aca="false">A890+TIME(0,10,0)</f>
-        <v>43227.1736111118</v>
-      </c>
-      <c r="B891" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="1" t="n">
-        <f aca="false">A891+TIME(0,10,0)</f>
-        <v>43227.1805555563</v>
-      </c>
-      <c r="B892" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="1" t="n">
-        <f aca="false">A892+TIME(0,10,0)</f>
-        <v>43227.1875000007</v>
-      </c>
-      <c r="B893" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="1" t="n">
-        <f aca="false">A893+TIME(0,10,0)</f>
-        <v>43227.1944444452</v>
-      </c>
-      <c r="B894" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="1" t="n">
-        <f aca="false">A894+TIME(0,10,0)</f>
-        <v>43227.2013888896</v>
-      </c>
-      <c r="B895" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="1" t="n">
-        <f aca="false">A895+TIME(0,10,0)</f>
-        <v>43227.2083333341</v>
-      </c>
-      <c r="B896" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="1" t="n">
-        <f aca="false">A896+TIME(0,10,0)</f>
-        <v>43227.2152777785</v>
-      </c>
-      <c r="B897" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="1" t="n">
-        <f aca="false">A897+TIME(0,10,0)</f>
-        <v>43227.2222222229</v>
-      </c>
-      <c r="B898" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="1" t="n">
-        <f aca="false">A898+TIME(0,10,0)</f>
-        <v>43227.2291666674</v>
-      </c>
-      <c r="B899" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="1" t="n">
-        <f aca="false">A899+TIME(0,10,0)</f>
-        <v>43227.2361111118</v>
-      </c>
-      <c r="B900" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="1" t="n">
-        <f aca="false">A900+TIME(0,10,0)</f>
-        <v>43227.2430555563</v>
-      </c>
-      <c r="B901" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="1" t="n">
-        <f aca="false">A901+TIME(0,10,0)</f>
-        <v>43227.2500000007</v>
-      </c>
-      <c r="B902" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="1" t="n">
-        <f aca="false">A902+TIME(0,10,0)</f>
-        <v>43227.2569444452</v>
-      </c>
-      <c r="B903" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="1" t="n">
-        <f aca="false">A903+TIME(0,10,0)</f>
-        <v>43227.2638888896</v>
-      </c>
-      <c r="B904" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="1" t="n">
-        <f aca="false">A904+TIME(0,10,0)</f>
-        <v>43227.2708333341</v>
-      </c>
-      <c r="B905" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="1" t="n">
-        <f aca="false">A905+TIME(0,10,0)</f>
-        <v>43227.2777777785</v>
-      </c>
-      <c r="B906" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="1" t="n">
-        <f aca="false">A906+TIME(0,10,0)</f>
-        <v>43227.284722223</v>
-      </c>
-      <c r="B907" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="1" t="n">
-        <f aca="false">A907+TIME(0,10,0)</f>
-        <v>43227.2916666674</v>
-      </c>
-      <c r="B908" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="1" t="n">
-        <f aca="false">A908+TIME(0,10,0)</f>
-        <v>43227.2986111119</v>
-      </c>
-      <c r="B909" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="1" t="n">
-        <f aca="false">A909+TIME(0,10,0)</f>
-        <v>43227.3055555563</v>
-      </c>
-      <c r="B910" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="1" t="n">
-        <f aca="false">A910+TIME(0,10,0)</f>
-        <v>43227.3125000007</v>
-      </c>
-      <c r="B911" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="1" t="n">
-        <f aca="false">A911+TIME(0,10,0)</f>
-        <v>43227.3194444452</v>
-      </c>
-      <c r="B912" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="1" t="n">
-        <f aca="false">A912+TIME(0,10,0)</f>
-        <v>43227.3263888896</v>
-      </c>
-      <c r="B913" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="1" t="n">
-        <f aca="false">A913+TIME(0,10,0)</f>
-        <v>43227.3333333341</v>
-      </c>
-      <c r="B914" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="1" t="n">
-        <f aca="false">A914+TIME(0,10,0)</f>
-        <v>43227.3402777785</v>
-      </c>
-      <c r="B915" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="1" t="n">
-        <f aca="false">A915+TIME(0,10,0)</f>
-        <v>43227.347222223</v>
-      </c>
-      <c r="B916" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="1" t="n">
-        <f aca="false">A916+TIME(0,10,0)</f>
-        <v>43227.3541666674</v>
-      </c>
-      <c r="B917" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="1" t="n">
-        <f aca="false">A917+TIME(0,10,0)</f>
-        <v>43227.3611111119</v>
-      </c>
-      <c r="B918" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="1" t="n">
-        <f aca="false">A918+TIME(0,10,0)</f>
-        <v>43227.3680555563</v>
-      </c>
-      <c r="B919" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="1" t="n">
-        <f aca="false">A919+TIME(0,10,0)</f>
-        <v>43227.3750000007</v>
-      </c>
-      <c r="B920" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="1" t="n">
-        <f aca="false">A920+TIME(0,10,0)</f>
-        <v>43227.3819444452</v>
-      </c>
-      <c r="B921" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="1" t="n">
-        <f aca="false">A921+TIME(0,10,0)</f>
-        <v>43227.3888888896</v>
-      </c>
-      <c r="B922" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="1" t="n">
-        <f aca="false">A922+TIME(0,10,0)</f>
-        <v>43227.3958333341</v>
-      </c>
-      <c r="B923" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="1" t="n">
-        <f aca="false">A923+TIME(0,10,0)</f>
-        <v>43227.4027777785</v>
-      </c>
-      <c r="B924" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="1" t="n">
-        <f aca="false">A924+TIME(0,10,0)</f>
-        <v>43227.409722223</v>
-      </c>
-      <c r="B925" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="1" t="n">
-        <f aca="false">A925+TIME(0,10,0)</f>
-        <v>43227.4166666674</v>
-      </c>
-      <c r="B926" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="1" t="n">
-        <f aca="false">A926+TIME(0,10,0)</f>
-        <v>43227.4236111119</v>
-      </c>
-      <c r="B927" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="1" t="n">
-        <f aca="false">A927+TIME(0,10,0)</f>
-        <v>43227.4305555563</v>
-      </c>
-      <c r="B928" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="1" t="n">
-        <f aca="false">A928+TIME(0,10,0)</f>
-        <v>43227.4375000008</v>
-      </c>
-      <c r="B929" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="1" t="n">
-        <f aca="false">A929+TIME(0,10,0)</f>
-        <v>43227.4444444452</v>
-      </c>
-      <c r="B930" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="1" t="n">
-        <f aca="false">A930+TIME(0,10,0)</f>
-        <v>43227.4513888896</v>
-      </c>
-      <c r="B931" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="1" t="n">
-        <f aca="false">A931+TIME(0,10,0)</f>
-        <v>43227.4583333341</v>
-      </c>
-      <c r="B932" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="1" t="n">
-        <f aca="false">A932+TIME(0,10,0)</f>
-        <v>43227.4652777785</v>
-      </c>
-      <c r="B933" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="1" t="n">
-        <f aca="false">A933+TIME(0,10,0)</f>
-        <v>43227.472222223</v>
-      </c>
-      <c r="B934" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="1" t="n">
-        <f aca="false">A934+TIME(0,10,0)</f>
-        <v>43227.4791666674</v>
-      </c>
-      <c r="B935" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="1" t="n">
-        <f aca="false">A935+TIME(0,10,0)</f>
-        <v>43227.4861111119</v>
-      </c>
-      <c r="B936" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="1" t="n">
-        <f aca="false">A936+TIME(0,10,0)</f>
-        <v>43227.4930555563</v>
-      </c>
-      <c r="B937" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="1" t="n">
-        <f aca="false">A937+TIME(0,10,0)</f>
-        <v>43227.5000000008</v>
-      </c>
-      <c r="B938" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="1" t="n">
-        <f aca="false">A938+TIME(0,10,0)</f>
-        <v>43227.5069444452</v>
-      </c>
-      <c r="B939" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="1" t="n">
-        <f aca="false">A939+TIME(0,10,0)</f>
-        <v>43227.5138888897</v>
-      </c>
-      <c r="B940" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="1" t="n">
-        <f aca="false">A940+TIME(0,10,0)</f>
-        <v>43227.5208333341</v>
-      </c>
-      <c r="B941" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="1" t="n">
-        <f aca="false">A941+TIME(0,10,0)</f>
-        <v>43227.5277777785</v>
-      </c>
-      <c r="B942" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="1" t="n">
-        <f aca="false">A942+TIME(0,10,0)</f>
-        <v>43227.534722223</v>
-      </c>
-      <c r="B943" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="1" t="n">
-        <f aca="false">A943+TIME(0,10,0)</f>
-        <v>43227.5416666674</v>
-      </c>
-      <c r="B944" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="1" t="n">
-        <f aca="false">A944+TIME(0,10,0)</f>
-        <v>43227.5486111119</v>
-      </c>
-      <c r="B945" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="1" t="n">
-        <f aca="false">A945+TIME(0,10,0)</f>
-        <v>43227.5555555563</v>
-      </c>
-      <c r="B946" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="1" t="n">
-        <f aca="false">A946+TIME(0,10,0)</f>
-        <v>43227.5625000008</v>
-      </c>
-      <c r="B947" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="1" t="n">
-        <f aca="false">A947+TIME(0,10,0)</f>
-        <v>43227.5694444452</v>
-      </c>
-      <c r="B948" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="1" t="n">
-        <f aca="false">A948+TIME(0,10,0)</f>
-        <v>43227.5763888897</v>
-      </c>
-      <c r="B949" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="1" t="n">
-        <f aca="false">A949+TIME(0,10,0)</f>
-        <v>43227.5833333341</v>
-      </c>
-      <c r="B950" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="1" t="n">
-        <f aca="false">A950+TIME(0,10,0)</f>
-        <v>43227.5902777785</v>
-      </c>
-      <c r="B951" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="1" t="n">
-        <f aca="false">A951+TIME(0,10,0)</f>
-        <v>43227.597222223</v>
-      </c>
-      <c r="B952" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="1" t="n">
-        <f aca="false">A952+TIME(0,10,0)</f>
-        <v>43227.6041666674</v>
-      </c>
-      <c r="B953" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="1" t="n">
-        <f aca="false">A953+TIME(0,10,0)</f>
-        <v>43227.6111111119</v>
-      </c>
-      <c r="B954" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="1" t="n">
-        <f aca="false">A954+TIME(0,10,0)</f>
-        <v>43227.6180555563</v>
-      </c>
-      <c r="B955" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="1" t="n">
-        <f aca="false">A955+TIME(0,10,0)</f>
-        <v>43227.6250000008</v>
-      </c>
-      <c r="B956" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="1" t="n">
-        <f aca="false">A956+TIME(0,10,0)</f>
-        <v>43227.6319444452</v>
-      </c>
-      <c r="B957" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="1" t="n">
-        <f aca="false">A957+TIME(0,10,0)</f>
-        <v>43227.6388888897</v>
-      </c>
-      <c r="B958" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="1" t="n">
-        <f aca="false">A958+TIME(0,10,0)</f>
-        <v>43227.6458333341</v>
-      </c>
-      <c r="B959" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="1" t="n">
-        <f aca="false">A959+TIME(0,10,0)</f>
-        <v>43227.6527777786</v>
-      </c>
-      <c r="B960" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="1" t="n">
-        <f aca="false">A960+TIME(0,10,0)</f>
-        <v>43227.659722223</v>
-      </c>
-      <c r="B961" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="1" t="n">
-        <f aca="false">A961+TIME(0,10,0)</f>
-        <v>43227.6666666674</v>
-      </c>
-      <c r="B962" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="1" t="n">
-        <f aca="false">A962+TIME(0,10,0)</f>
-        <v>43227.6736111119</v>
-      </c>
-      <c r="B963" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="1" t="n">
-        <f aca="false">A963+TIME(0,10,0)</f>
-        <v>43227.6805555563</v>
-      </c>
-      <c r="B964" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="1" t="n">
-        <f aca="false">A964+TIME(0,10,0)</f>
-        <v>43227.6875000008</v>
-      </c>
-      <c r="B965" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="1" t="n">
-        <f aca="false">A965+TIME(0,10,0)</f>
-        <v>43227.6944444452</v>
-      </c>
-      <c r="B966" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="1" t="n">
-        <f aca="false">A966+TIME(0,10,0)</f>
-        <v>43227.7013888897</v>
-      </c>
-      <c r="B967" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="1" t="n">
-        <f aca="false">A967+TIME(0,10,0)</f>
-        <v>43227.7083333341</v>
-      </c>
-      <c r="B968" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="1" t="n">
-        <f aca="false">A968+TIME(0,10,0)</f>
-        <v>43227.7152777786</v>
-      </c>
-      <c r="B969" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="1" t="n">
-        <f aca="false">A969+TIME(0,10,0)</f>
-        <v>43227.722222223</v>
-      </c>
-      <c r="B970" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="1" t="n">
-        <f aca="false">A970+TIME(0,10,0)</f>
-        <v>43227.7291666675</v>
-      </c>
-      <c r="B971" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="1" t="n">
-        <f aca="false">A971+TIME(0,10,0)</f>
-        <v>43227.7361111119</v>
-      </c>
-      <c r="B972" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="1" t="n">
-        <f aca="false">A972+TIME(0,10,0)</f>
-        <v>43227.7430555563</v>
-      </c>
-      <c r="B973" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="1" t="n">
-        <f aca="false">A973+TIME(0,10,0)</f>
-        <v>43227.7500000008</v>
-      </c>
-      <c r="B974" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="1" t="n">
-        <f aca="false">A974+TIME(0,10,0)</f>
-        <v>43227.7569444452</v>
-      </c>
-      <c r="B975" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="1" t="n">
-        <f aca="false">A975+TIME(0,10,0)</f>
-        <v>43227.7638888897</v>
-      </c>
-      <c r="B976" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="1" t="n">
-        <f aca="false">A976+TIME(0,10,0)</f>
-        <v>43227.7708333341</v>
-      </c>
-      <c r="B977" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="1" t="n">
-        <f aca="false">A977+TIME(0,10,0)</f>
-        <v>43227.7777777786</v>
-      </c>
-      <c r="B978" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="1" t="n">
-        <f aca="false">A978+TIME(0,10,0)</f>
-        <v>43227.784722223</v>
-      </c>
-      <c r="B979" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="1" t="n">
-        <f aca="false">A979+TIME(0,10,0)</f>
-        <v>43227.7916666675</v>
-      </c>
-      <c r="B980" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="1" t="n">
-        <f aca="false">A980+TIME(0,10,0)</f>
-        <v>43227.7986111119</v>
-      </c>
-      <c r="B981" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="1" t="n">
-        <f aca="false">A981+TIME(0,10,0)</f>
-        <v>43227.8055555564</v>
-      </c>
-      <c r="B982" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="1" t="n">
-        <f aca="false">A982+TIME(0,10,0)</f>
-        <v>43227.8125000008</v>
-      </c>
-      <c r="B983" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="1" t="n">
-        <f aca="false">A983+TIME(0,10,0)</f>
-        <v>43227.8194444452</v>
-      </c>
-      <c r="B984" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="1" t="n">
-        <f aca="false">A984+TIME(0,10,0)</f>
-        <v>43227.8263888897</v>
-      </c>
-      <c r="B985" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="1" t="n">
-        <f aca="false">A985+TIME(0,10,0)</f>
-        <v>43227.8333333341</v>
-      </c>
-      <c r="B986" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="1" t="n">
-        <f aca="false">A986+TIME(0,10,0)</f>
-        <v>43227.8402777786</v>
-      </c>
-      <c r="B987" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="1" t="n">
-        <f aca="false">A987+TIME(0,10,0)</f>
-        <v>43227.847222223</v>
-      </c>
-      <c r="B988" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="1" t="n">
-        <f aca="false">A988+TIME(0,10,0)</f>
-        <v>43227.8541666675</v>
-      </c>
-      <c r="B989" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="1" t="n">
-        <f aca="false">A989+TIME(0,10,0)</f>
-        <v>43227.8611111119</v>
-      </c>
-      <c r="B990" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="1" t="n">
-        <f aca="false">A990+TIME(0,10,0)</f>
-        <v>43227.8680555564</v>
-      </c>
-      <c r="B991" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="1" t="n">
-        <f aca="false">A991+TIME(0,10,0)</f>
-        <v>43227.8750000008</v>
-      </c>
-      <c r="B992" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="1" t="n">
-        <f aca="false">A992+TIME(0,10,0)</f>
-        <v>43227.8819444452</v>
-      </c>
-      <c r="B993" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="1" t="n">
-        <f aca="false">A993+TIME(0,10,0)</f>
-        <v>43227.8888888897</v>
-      </c>
-      <c r="B994" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="1" t="n">
-        <f aca="false">A994+TIME(0,10,0)</f>
-        <v>43227.8958333341</v>
-      </c>
-      <c r="B995" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="1" t="n">
-        <f aca="false">A995+TIME(0,10,0)</f>
-        <v>43227.9027777786</v>
-      </c>
-      <c r="B996" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="1" t="n">
-        <f aca="false">A996+TIME(0,10,0)</f>
-        <v>43227.909722223</v>
-      </c>
-      <c r="B997" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="1" t="n">
-        <f aca="false">A997+TIME(0,10,0)</f>
-        <v>43227.9166666675</v>
-      </c>
-      <c r="B998" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="1" t="n">
-        <f aca="false">A998+TIME(0,10,0)</f>
-        <v>43227.9236111119</v>
-      </c>
-      <c r="B999" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="1" t="n">
-        <f aca="false">A999+TIME(0,10,0)</f>
-        <v>43227.9305555564</v>
-      </c>
-      <c r="B1000" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="1" t="n">
-        <f aca="false">A1000+TIME(0,10,0)</f>
-        <v>43227.9375000008</v>
-      </c>
-      <c r="B1001" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="1" t="n">
-        <f aca="false">A1001+TIME(0,10,0)</f>
-        <v>43227.9444444453</v>
-      </c>
-      <c r="B1002" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="1" t="n">
-        <f aca="false">A1002+TIME(0,10,0)</f>
-        <v>43227.9513888897</v>
-      </c>
-      <c r="B1003" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="1" t="n">
-        <f aca="false">A1003+TIME(0,10,0)</f>
-        <v>43227.9583333341</v>
-      </c>
-      <c r="B1004" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="1" t="n">
-        <f aca="false">A1004+TIME(0,10,0)</f>
-        <v>43227.9652777786</v>
-      </c>
-      <c r="B1005" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="1" t="n">
-        <f aca="false">A1005+TIME(0,10,0)</f>
-        <v>43227.972222223</v>
-      </c>
-      <c r="B1006" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="1" t="n">
-        <f aca="false">A1006+TIME(0,10,0)</f>
-        <v>43227.9791666675</v>
-      </c>
-      <c r="B1007" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="1" t="n">
-        <f aca="false">A1007+TIME(0,10,0)</f>
-        <v>43227.9861111119</v>
-      </c>
-      <c r="B1008" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="1" t="n">
-        <f aca="false">A1008+TIME(0,10,0)</f>
-        <v>43227.9930555564</v>
-      </c>
-      <c r="B1009" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="1" t="n">
-        <f aca="false">A1009+TIME(0,10,0)</f>
-        <v>43228.0000000008</v>
-      </c>
-      <c r="B1010" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="1" t="n">
-        <f aca="false">A1010+TIME(0,10,0)</f>
-        <v>43228.0069444453</v>
-      </c>
-      <c r="B1011" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="1" t="n">
-        <f aca="false">A1011+TIME(0,10,0)</f>
-        <v>43228.0138888897</v>
-      </c>
-      <c r="B1012" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="1" t="n">
-        <f aca="false">A1012+TIME(0,10,0)</f>
-        <v>43228.0208333342</v>
-      </c>
-      <c r="B1013" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="1" t="n">
-        <f aca="false">A1013+TIME(0,10,0)</f>
-        <v>43228.0277777786</v>
-      </c>
-      <c r="B1014" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="1" t="n">
-        <f aca="false">A1014+TIME(0,10,0)</f>
-        <v>43228.034722223</v>
-      </c>
-      <c r="B1015" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="1" t="n">
-        <f aca="false">A1015+TIME(0,10,0)</f>
-        <v>43228.0416666675</v>
-      </c>
-      <c r="B1016" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="1" t="n">
-        <f aca="false">A1016+TIME(0,10,0)</f>
-        <v>43228.0486111119</v>
-      </c>
-      <c r="B1017" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="1" t="n">
-        <f aca="false">A1017+TIME(0,10,0)</f>
-        <v>43228.0555555564</v>
-      </c>
-      <c r="B1018" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="1" t="n">
-        <f aca="false">A1018+TIME(0,10,0)</f>
-        <v>43228.0625000008</v>
-      </c>
-      <c r="B1019" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="1" t="n">
-        <f aca="false">A1019+TIME(0,10,0)</f>
-        <v>43228.0694444453</v>
-      </c>
-      <c r="B1020" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="1" t="n">
-        <f aca="false">A1020+TIME(0,10,0)</f>
-        <v>43228.0763888897</v>
-      </c>
-      <c r="B1021" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="1" t="n">
-        <f aca="false">A1021+TIME(0,10,0)</f>
-        <v>43228.0833333342</v>
-      </c>
-      <c r="B1022" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="1" t="n">
-        <f aca="false">A1022+TIME(0,10,0)</f>
-        <v>43228.0902777786</v>
-      </c>
-      <c r="B1023" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="1" t="n">
-        <f aca="false">A1023+TIME(0,10,0)</f>
-        <v>43228.097222223</v>
-      </c>
-      <c r="B1024" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="1" t="n">
-        <f aca="false">A1024+TIME(0,10,0)</f>
-        <v>43228.1041666675</v>
-      </c>
-      <c r="B1025" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="1" t="n">
-        <f aca="false">A1025+TIME(0,10,0)</f>
-        <v>43228.1111111119</v>
-      </c>
-      <c r="B1026" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="1" t="n">
-        <f aca="false">A1026+TIME(0,10,0)</f>
-        <v>43228.1180555564</v>
-      </c>
-      <c r="B1027" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="1" t="n">
-        <f aca="false">A1027+TIME(0,10,0)</f>
-        <v>43228.1250000008</v>
-      </c>
-      <c r="B1028" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="1" t="n">
-        <f aca="false">A1028+TIME(0,10,0)</f>
-        <v>43228.1319444453</v>
-      </c>
-      <c r="B1029" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="1" t="n">
-        <f aca="false">A1029+TIME(0,10,0)</f>
-        <v>43228.1388888897</v>
-      </c>
-      <c r="B1030" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="1" t="n">
-        <f aca="false">A1030+TIME(0,10,0)</f>
-        <v>43228.1458333342</v>
-      </c>
-      <c r="B1031" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="1" t="n">
-        <f aca="false">A1031+TIME(0,10,0)</f>
-        <v>43228.1527777786</v>
-      </c>
-      <c r="B1032" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="1" t="n">
-        <f aca="false">A1032+TIME(0,10,0)</f>
-        <v>43228.1597222231</v>
-      </c>
-      <c r="B1033" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="1" t="n">
-        <f aca="false">A1033+TIME(0,10,0)</f>
-        <v>43228.1666666675</v>
-      </c>
-      <c r="B1034" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="1" t="n">
-        <f aca="false">A1034+TIME(0,10,0)</f>
-        <v>43228.173611112</v>
-      </c>
-      <c r="B1035" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="1" t="n">
-        <f aca="false">A1035+TIME(0,10,0)</f>
-        <v>43228.1805555564</v>
-      </c>
-      <c r="B1036" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="1" t="n">
-        <f aca="false">A1036+TIME(0,10,0)</f>
-        <v>43228.1875000008</v>
-      </c>
-      <c r="B1037" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="1" t="n">
-        <f aca="false">A1037+TIME(0,10,0)</f>
-        <v>43228.1944444453</v>
-      </c>
-      <c r="B1038" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="1" t="n">
-        <f aca="false">A1038+TIME(0,10,0)</f>
-        <v>43228.2013888897</v>
-      </c>
-      <c r="B1039" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="1" t="n">
-        <f aca="false">A1039+TIME(0,10,0)</f>
-        <v>43228.2083333342</v>
-      </c>
-      <c r="B1040" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="1" t="n">
-        <f aca="false">A1040+TIME(0,10,0)</f>
-        <v>43228.2152777786</v>
-      </c>
-      <c r="B1041" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="1" t="n">
-        <f aca="false">A1041+TIME(0,10,0)</f>
-        <v>43228.2222222231</v>
-      </c>
-      <c r="B1042" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="1" t="n">
-        <f aca="false">A1042+TIME(0,10,0)</f>
-        <v>43228.2291666675</v>
-      </c>
-      <c r="B1043" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="1" t="n">
-        <f aca="false">A1043+TIME(0,10,0)</f>
-        <v>43228.236111112</v>
-      </c>
-      <c r="B1044" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="1" t="n">
-        <f aca="false">A1044+TIME(0,10,0)</f>
-        <v>43228.2430555564</v>
-      </c>
-      <c r="B1045" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="1" t="n">
-        <f aca="false">A1045+TIME(0,10,0)</f>
-        <v>43228.2500000008</v>
-      </c>
-      <c r="B1046" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="1" t="n">
-        <f aca="false">A1046+TIME(0,10,0)</f>
-        <v>43228.2569444453</v>
-      </c>
-      <c r="B1047" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="1" t="n">
-        <f aca="false">A1047+TIME(0,10,0)</f>
-        <v>43228.2638888897</v>
-      </c>
-      <c r="B1048" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="1" t="n">
-        <f aca="false">A1048+TIME(0,10,0)</f>
-        <v>43228.2708333342</v>
-      </c>
-      <c r="B1049" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="1" t="n">
-        <f aca="false">A1049+TIME(0,10,0)</f>
-        <v>43228.2777777786</v>
-      </c>
-      <c r="B1050" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="1" t="n">
-        <f aca="false">A1050+TIME(0,10,0)</f>
-        <v>43228.2847222231</v>
-      </c>
-      <c r="B1051" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="1" t="n">
-        <f aca="false">A1051+TIME(0,10,0)</f>
-        <v>43228.2916666675</v>
-      </c>
-      <c r="B1052" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="1" t="n">
-        <f aca="false">A1052+TIME(0,10,0)</f>
-        <v>43228.298611112</v>
-      </c>
-      <c r="B1053" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="1" t="n">
-        <f aca="false">A1053+TIME(0,10,0)</f>
-        <v>43228.3055555564</v>
-      </c>
-      <c r="B1054" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="1" t="n">
-        <f aca="false">A1054+TIME(0,10,0)</f>
-        <v>43228.3125000009</v>
-      </c>
-      <c r="B1055" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="1" t="n">
-        <f aca="false">A1055+TIME(0,10,0)</f>
-        <v>43228.3194444453</v>
-      </c>
-      <c r="B1056" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="1" t="n">
-        <f aca="false">A1056+TIME(0,10,0)</f>
-        <v>43228.3263888897</v>
-      </c>
-      <c r="B1057" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="1" t="n">
-        <f aca="false">A1057+TIME(0,10,0)</f>
-        <v>43228.3333333342</v>
-      </c>
-      <c r="B1058" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="1" t="n">
-        <f aca="false">A1058+TIME(0,10,0)</f>
-        <v>43228.3402777786</v>
-      </c>
-      <c r="B1059" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="1" t="n">
-        <f aca="false">A1059+TIME(0,10,0)</f>
-        <v>43228.3472222231</v>
-      </c>
-      <c r="B1060" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="1" t="n">
-        <f aca="false">A1060+TIME(0,10,0)</f>
-        <v>43228.3541666675</v>
-      </c>
-      <c r="B1061" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="1" t="n">
-        <f aca="false">A1061+TIME(0,10,0)</f>
-        <v>43228.361111112</v>
-      </c>
-      <c r="B1062" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="1" t="n">
-        <f aca="false">A1062+TIME(0,10,0)</f>
-        <v>43228.3680555564</v>
-      </c>
-      <c r="B1063" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="1" t="n">
-        <f aca="false">A1063+TIME(0,10,0)</f>
-        <v>43228.3750000009</v>
-      </c>
-      <c r="B1064" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="1" t="n">
-        <f aca="false">A1064+TIME(0,10,0)</f>
-        <v>43228.3819444453</v>
-      </c>
-      <c r="B1065" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="1" t="n">
-        <f aca="false">A1065+TIME(0,10,0)</f>
-        <v>43228.3888888898</v>
-      </c>
-      <c r="B1066" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="1" t="n">
-        <f aca="false">A1066+TIME(0,10,0)</f>
-        <v>43228.3958333342</v>
-      </c>
-      <c r="B1067" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="1" t="n">
-        <f aca="false">A1067+TIME(0,10,0)</f>
-        <v>43228.4027777786</v>
-      </c>
-      <c r="B1068" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="1" t="n">
-        <f aca="false">A1068+TIME(0,10,0)</f>
-        <v>43228.4097222231</v>
-      </c>
-      <c r="B1069" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="1" t="n">
-        <f aca="false">A1069+TIME(0,10,0)</f>
-        <v>43228.4166666675</v>
-      </c>
-      <c r="B1070" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="1" t="n">
-        <f aca="false">A1070+TIME(0,10,0)</f>
-        <v>43228.423611112</v>
-      </c>
-      <c r="B1071" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="1" t="n">
-        <f aca="false">A1071+TIME(0,10,0)</f>
-        <v>43228.4305555564</v>
-      </c>
-      <c r="B1072" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="1" t="n">
-        <f aca="false">A1072+TIME(0,10,0)</f>
-        <v>43228.4375000009</v>
-      </c>
-      <c r="B1073" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="1" t="n">
-        <f aca="false">A1073+TIME(0,10,0)</f>
-        <v>43228.4444444453</v>
-      </c>
-      <c r="B1074" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="1" t="n">
-        <f aca="false">A1074+TIME(0,10,0)</f>
-        <v>43228.4513888898</v>
-      </c>
-      <c r="B1075" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="1" t="n">
-        <f aca="false">A1075+TIME(0,10,0)</f>
-        <v>43228.4583333342</v>
-      </c>
-      <c r="B1076" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="1" t="n">
-        <f aca="false">A1076+TIME(0,10,0)</f>
-        <v>43228.4652777786</v>
-      </c>
-      <c r="B1077" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="1" t="n">
-        <f aca="false">A1077+TIME(0,10,0)</f>
-        <v>43228.4722222231</v>
-      </c>
-      <c r="B1078" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="1" t="n">
-        <f aca="false">A1078+TIME(0,10,0)</f>
-        <v>43228.4791666675</v>
-      </c>
-      <c r="B1079" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="1" t="n">
-        <f aca="false">A1079+TIME(0,10,0)</f>
-        <v>43228.486111112</v>
-      </c>
-      <c r="B1080" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="1" t="n">
-        <f aca="false">A1080+TIME(0,10,0)</f>
-        <v>43228.4930555564</v>
-      </c>
-      <c r="B1081" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="1" t="n">
-        <f aca="false">A1081+TIME(0,10,0)</f>
-        <v>43228.5000000009</v>
-      </c>
-      <c r="B1082" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="1" t="n">
-        <f aca="false">A1082+TIME(0,10,0)</f>
-        <v>43228.5069444453</v>
-      </c>
-      <c r="B1083" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="1" t="n">
-        <f aca="false">A1083+TIME(0,10,0)</f>
-        <v>43228.5138888898</v>
-      </c>
-      <c r="B1084" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1085" s="1" t="n">
-        <f aca="false">A1084+TIME(0,10,0)</f>
-        <v>43228.5208333342</v>
-      </c>
-      <c r="B1085" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="1" t="n">
-        <f aca="false">A1085+TIME(0,10,0)</f>
-        <v>43228.5277777787</v>
-      </c>
-      <c r="B1086" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1087" s="1" t="n">
-        <f aca="false">A1086+TIME(0,10,0)</f>
-        <v>43228.5347222231</v>
-      </c>
-      <c r="B1087" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="1" t="n">
-        <f aca="false">A1087+TIME(0,10,0)</f>
-        <v>43228.5416666675</v>
-      </c>
-      <c r="B1088" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="1" t="n">
-        <f aca="false">A1088+TIME(0,10,0)</f>
-        <v>43228.548611112</v>
-      </c>
-      <c r="B1089" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="1" t="n">
-        <f aca="false">A1089+TIME(0,10,0)</f>
-        <v>43228.5555555564</v>
-      </c>
-      <c r="B1090" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="1" t="n">
-        <f aca="false">A1090+TIME(0,10,0)</f>
-        <v>43228.5625000009</v>
-      </c>
-      <c r="B1091" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="1" t="n">
-        <f aca="false">A1091+TIME(0,10,0)</f>
-        <v>43228.5694444453</v>
-      </c>
-      <c r="B1092" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="1" t="n">
-        <f aca="false">A1092+TIME(0,10,0)</f>
-        <v>43228.5763888898</v>
-      </c>
-      <c r="B1093" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="1" t="n">
-        <f aca="false">A1093+TIME(0,10,0)</f>
-        <v>43228.5833333342</v>
-      </c>
-      <c r="B1094" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="1" t="n">
-        <f aca="false">A1094+TIME(0,10,0)</f>
-        <v>43228.5902777787</v>
-      </c>
-      <c r="B1095" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="1" t="n">
-        <f aca="false">A1095+TIME(0,10,0)</f>
-        <v>43228.5972222231</v>
-      </c>
-      <c r="B1096" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1097" s="1" t="n">
-        <f aca="false">A1096+TIME(0,10,0)</f>
-        <v>43228.6041666676</v>
-      </c>
-      <c r="B1097" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="1" t="n">
-        <f aca="false">A1097+TIME(0,10,0)</f>
-        <v>43228.611111112</v>
-      </c>
-      <c r="B1098" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="1" t="n">
-        <f aca="false">A1098+TIME(0,10,0)</f>
-        <v>43228.6180555564</v>
-      </c>
-      <c r="B1099" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="1" t="n">
-        <f aca="false">A1099+TIME(0,10,0)</f>
-        <v>43228.6250000009</v>
-      </c>
-      <c r="B1100" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="1" t="n">
-        <f aca="false">A1100+TIME(0,10,0)</f>
-        <v>43228.6319444453</v>
-      </c>
-      <c r="B1101" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="1" t="n">
-        <f aca="false">A1101+TIME(0,10,0)</f>
-        <v>43228.6388888898</v>
-      </c>
-      <c r="B1102" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="1" t="n">
-        <f aca="false">A1102+TIME(0,10,0)</f>
-        <v>43228.6458333342</v>
-      </c>
-      <c r="B1103" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="1" t="n">
-        <f aca="false">A1103+TIME(0,10,0)</f>
-        <v>43228.6527777787</v>
-      </c>
-      <c r="B1104" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="1" t="n">
-        <f aca="false">A1104+TIME(0,10,0)</f>
-        <v>43228.6597222231</v>
-      </c>
-      <c r="B1105" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="1" t="n">
-        <f aca="false">A1105+TIME(0,10,0)</f>
-        <v>43228.6666666676</v>
-      </c>
-      <c r="B1106" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1107" s="1" t="n">
-        <f aca="false">A1106+TIME(0,10,0)</f>
-        <v>43228.673611112</v>
-      </c>
-      <c r="B1107" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1108" s="1" t="n">
-        <f aca="false">A1107+TIME(0,10,0)</f>
-        <v>43228.6805555565</v>
-      </c>
-      <c r="B1108" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="1" t="n">
-        <f aca="false">A1108+TIME(0,10,0)</f>
-        <v>43228.6875000009</v>
-      </c>
-      <c r="B1109" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="1" t="n">
-        <f aca="false">A1109+TIME(0,10,0)</f>
-        <v>43228.6944444453</v>
-      </c>
-      <c r="B1110" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="1" t="n">
-        <f aca="false">A1110+TIME(0,10,0)</f>
-        <v>43228.7013888898</v>
-      </c>
-      <c r="B1111" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="1" t="n">
-        <f aca="false">A1111+TIME(0,10,0)</f>
-        <v>43228.7083333342</v>
-      </c>
-      <c r="B1112" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="1" t="n">
-        <f aca="false">A1112+TIME(0,10,0)</f>
-        <v>43228.7152777787</v>
-      </c>
-      <c r="B1113" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="1" t="n">
-        <f aca="false">A1113+TIME(0,10,0)</f>
-        <v>43228.7222222231</v>
-      </c>
-      <c r="B1114" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="1" t="n">
-        <f aca="false">A1114+TIME(0,10,0)</f>
-        <v>43228.7291666676</v>
-      </c>
-      <c r="B1115" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="1" t="n">
-        <f aca="false">A1115+TIME(0,10,0)</f>
-        <v>43228.736111112</v>
-      </c>
-      <c r="B1116" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1117" s="1" t="n">
-        <f aca="false">A1116+TIME(0,10,0)</f>
-        <v>43228.7430555565</v>
-      </c>
-      <c r="B1117" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="1" t="n">
-        <f aca="false">A1117+TIME(0,10,0)</f>
-        <v>43228.7500000009</v>
-      </c>
-      <c r="B1118" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="1" t="n">
-        <f aca="false">A1118+TIME(0,10,0)</f>
-        <v>43228.7569444453</v>
-      </c>
-      <c r="B1119" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="1" t="n">
-        <f aca="false">A1119+TIME(0,10,0)</f>
-        <v>43228.7638888898</v>
-      </c>
-      <c r="B1120" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="1" t="n">
-        <f aca="false">A1120+TIME(0,10,0)</f>
-        <v>43228.7708333342</v>
-      </c>
-      <c r="B1121" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="1" t="n">
-        <f aca="false">A1121+TIME(0,10,0)</f>
-        <v>43228.7777777787</v>
-      </c>
-      <c r="B1122" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="1" t="n">
-        <f aca="false">A1122+TIME(0,10,0)</f>
-        <v>43228.7847222231</v>
-      </c>
-      <c r="B1123" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1124" s="1" t="n">
-        <f aca="false">A1123+TIME(0,10,0)</f>
-        <v>43228.7916666676</v>
-      </c>
-      <c r="B1124" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="1" t="n">
-        <f aca="false">A1124+TIME(0,10,0)</f>
-        <v>43228.798611112</v>
-      </c>
-      <c r="B1125" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="1" t="n">
-        <f aca="false">A1125+TIME(0,10,0)</f>
-        <v>43228.8055555565</v>
-      </c>
-      <c r="B1126" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="1" t="n">
-        <f aca="false">A1126+TIME(0,10,0)</f>
-        <v>43228.8125000009</v>
-      </c>
-      <c r="B1127" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="1" t="n">
-        <f aca="false">A1127+TIME(0,10,0)</f>
-        <v>43228.8194444454</v>
-      </c>
-      <c r="B1128" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="1" t="n">
-        <f aca="false">A1128+TIME(0,10,0)</f>
-        <v>43228.8263888898</v>
-      </c>
-      <c r="B1129" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1130" s="1" t="n">
-        <f aca="false">A1129+TIME(0,10,0)</f>
-        <v>43228.8333333343</v>
-      </c>
-      <c r="B1130" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="1" t="n">
-        <f aca="false">A1130+TIME(0,10,0)</f>
-        <v>43228.8402777787</v>
-      </c>
-      <c r="B1131" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="1" t="n">
-        <f aca="false">A1131+TIME(0,10,0)</f>
-        <v>43228.8472222231</v>
-      </c>
-      <c r="B1132" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1133" s="1" t="n">
-        <f aca="false">A1132+TIME(0,10,0)</f>
-        <v>43228.8541666676</v>
-      </c>
-      <c r="B1133" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="1" t="n">
-        <f aca="false">A1133+TIME(0,10,0)</f>
-        <v>43228.861111112</v>
-      </c>
-      <c r="B1134" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1135" s="1" t="n">
-        <f aca="false">A1134+TIME(0,10,0)</f>
-        <v>43228.8680555565</v>
-      </c>
-      <c r="B1135" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1136" s="1" t="n">
-        <f aca="false">A1135+TIME(0,10,0)</f>
-        <v>43228.8750000009</v>
-      </c>
-      <c r="B1136" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="1" t="n">
-        <f aca="false">A1136+TIME(0,10,0)</f>
-        <v>43228.8819444454</v>
-      </c>
-      <c r="B1137" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="1" t="n">
-        <f aca="false">A1137+TIME(0,10,0)</f>
-        <v>43228.8888888898</v>
-      </c>
-      <c r="B1138" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="1" t="n">
-        <f aca="false">A1138+TIME(0,10,0)</f>
-        <v>43228.8958333343</v>
-      </c>
-      <c r="B1139" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="1" t="n">
-        <f aca="false">A1139+TIME(0,10,0)</f>
-        <v>43228.9027777787</v>
-      </c>
-      <c r="B1140" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1141" s="1" t="n">
-        <f aca="false">A1140+TIME(0,10,0)</f>
-        <v>43228.9097222231</v>
-      </c>
-      <c r="B1141" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1142" s="1" t="n">
-        <f aca="false">A1141+TIME(0,10,0)</f>
-        <v>43228.9166666676</v>
-      </c>
-      <c r="B1142" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1143" s="1" t="n">
-        <f aca="false">A1142+TIME(0,10,0)</f>
-        <v>43228.923611112</v>
-      </c>
-      <c r="B1143" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1144" s="1" t="n">
-        <f aca="false">A1143+TIME(0,10,0)</f>
-        <v>43228.9305555565</v>
-      </c>
-      <c r="B1144" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1145" s="1" t="n">
-        <f aca="false">A1144+TIME(0,10,0)</f>
-        <v>43228.9375000009</v>
-      </c>
-      <c r="B1145" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1146" s="1" t="n">
-        <f aca="false">A1145+TIME(0,10,0)</f>
-        <v>43228.9444444454</v>
-      </c>
-      <c r="B1146" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1147" s="1" t="n">
-        <f aca="false">A1146+TIME(0,10,0)</f>
-        <v>43228.9513888898</v>
-      </c>
-      <c r="B1147" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1148" s="1" t="n">
-        <f aca="false">A1147+TIME(0,10,0)</f>
-        <v>43228.9583333343</v>
-      </c>
-      <c r="B1148" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1149" s="1" t="n">
-        <f aca="false">A1148+TIME(0,10,0)</f>
-        <v>43228.9652777787</v>
-      </c>
-      <c r="B1149" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1150" s="1" t="n">
-        <f aca="false">A1149+TIME(0,10,0)</f>
-        <v>43228.9722222232</v>
-      </c>
-      <c r="B1150" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1151" s="1" t="n">
-        <f aca="false">A1150+TIME(0,10,0)</f>
-        <v>43228.9791666676</v>
-      </c>
-      <c r="B1151" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1152" s="1" t="n">
-        <f aca="false">A1151+TIME(0,10,0)</f>
-        <v>43228.986111112</v>
-      </c>
-      <c r="B1152" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1153" s="1" t="n">
-        <f aca="false">A1152+TIME(0,10,0)</f>
-        <v>43228.9930555565</v>
-      </c>
-      <c r="B1153" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1154" s="1" t="n">
-        <f aca="false">A1153+TIME(0,10,0)</f>
-        <v>43229.0000000009</v>
-      </c>
-      <c r="B1154" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1155" s="1" t="n">
-        <f aca="false">A1154+TIME(0,10,0)</f>
-        <v>43229.0069444454</v>
-      </c>
-      <c r="B1155" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="1" t="n">
-        <f aca="false">A1155+TIME(0,10,0)</f>
-        <v>43229.0138888898</v>
-      </c>
-      <c r="B1156" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1157" s="1" t="n">
-        <f aca="false">A1156+TIME(0,10,0)</f>
-        <v>43229.0208333343</v>
-      </c>
-      <c r="B1157" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1158" s="1" t="n">
-        <f aca="false">A1157+TIME(0,10,0)</f>
-        <v>43229.0277777787</v>
-      </c>
-      <c r="B1158" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1159" s="1" t="n">
-        <f aca="false">A1158+TIME(0,10,0)</f>
-        <v>43229.0347222232</v>
-      </c>
-      <c r="B1159" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1160" s="1" t="n">
-        <f aca="false">A1159+TIME(0,10,0)</f>
-        <v>43229.0416666676</v>
-      </c>
-      <c r="B1160" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1161" s="1" t="n">
-        <f aca="false">A1160+TIME(0,10,0)</f>
-        <v>43229.0486111121</v>
-      </c>
-      <c r="B1161" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1162" s="1" t="n">
-        <f aca="false">A1161+TIME(0,10,0)</f>
-        <v>43229.0555555565</v>
-      </c>
-      <c r="B1162" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1163" s="1" t="n">
-        <f aca="false">A1162+TIME(0,10,0)</f>
-        <v>43229.0625000009</v>
-      </c>
-      <c r="B1163" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1164" s="1" t="n">
-        <f aca="false">A1163+TIME(0,10,0)</f>
-        <v>43229.0694444454</v>
-      </c>
-      <c r="B1164" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1165" s="1" t="n">
-        <f aca="false">A1164+TIME(0,10,0)</f>
-        <v>43229.0763888898</v>
-      </c>
-      <c r="B1165" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1166" s="1" t="n">
-        <f aca="false">A1165+TIME(0,10,0)</f>
-        <v>43229.0833333343</v>
-      </c>
-      <c r="B1166" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1167" s="1" t="n">
-        <f aca="false">A1166+TIME(0,10,0)</f>
-        <v>43229.0902777787</v>
-      </c>
-      <c r="B1167" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1168" s="1" t="n">
-        <f aca="false">A1167+TIME(0,10,0)</f>
-        <v>43229.0972222232</v>
-      </c>
-      <c r="B1168" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1169" s="1" t="n">
-        <f aca="false">A1168+TIME(0,10,0)</f>
-        <v>43229.1041666676</v>
-      </c>
-      <c r="B1169" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1170" s="1" t="n">
-        <f aca="false">A1169+TIME(0,10,0)</f>
-        <v>43229.1111111121</v>
-      </c>
-      <c r="B1170" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1171" s="1" t="n">
-        <f aca="false">A1170+TIME(0,10,0)</f>
-        <v>43229.1180555565</v>
-      </c>
-      <c r="B1171" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1172" s="1" t="n">
-        <f aca="false">A1171+TIME(0,10,0)</f>
-        <v>43229.1250000009</v>
-      </c>
-      <c r="B1172" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1173" s="1" t="n">
-        <f aca="false">A1172+TIME(0,10,0)</f>
-        <v>43229.1319444454</v>
-      </c>
-      <c r="B1173" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1174" s="1" t="n">
-        <f aca="false">A1173+TIME(0,10,0)</f>
-        <v>43229.1388888898</v>
-      </c>
-      <c r="B1174" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1175" s="1" t="n">
-        <f aca="false">A1174+TIME(0,10,0)</f>
-        <v>43229.1458333343</v>
-      </c>
-      <c r="B1175" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1176" s="1" t="n">
-        <f aca="false">A1175+TIME(0,10,0)</f>
-        <v>43229.1527777787</v>
-      </c>
-      <c r="B1176" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1177" s="1" t="n">
-        <f aca="false">A1176+TIME(0,10,0)</f>
-        <v>43229.1597222232</v>
-      </c>
-      <c r="B1177" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1178" s="1" t="n">
-        <f aca="false">A1177+TIME(0,10,0)</f>
-        <v>43229.1666666676</v>
-      </c>
-      <c r="B1178" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1179" s="1" t="n">
-        <f aca="false">A1178+TIME(0,10,0)</f>
-        <v>43229.1736111121</v>
-      </c>
-      <c r="B1179" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1180" s="1" t="n">
-        <f aca="false">A1179+TIME(0,10,0)</f>
-        <v>43229.1805555565</v>
-      </c>
-      <c r="B1180" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1181" s="1" t="n">
-        <f aca="false">A1180+TIME(0,10,0)</f>
-        <v>43229.187500001</v>
-      </c>
-      <c r="B1181" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1182" s="1" t="n">
-        <f aca="false">A1181+TIME(0,10,0)</f>
-        <v>43229.1944444454</v>
-      </c>
-      <c r="B1182" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1183" s="1" t="n">
-        <f aca="false">A1182+TIME(0,10,0)</f>
-        <v>43229.2013888898</v>
-      </c>
-      <c r="B1183" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1184" s="1" t="n">
-        <f aca="false">A1183+TIME(0,10,0)</f>
-        <v>43229.2083333343</v>
-      </c>
-      <c r="B1184" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1185" s="1" t="n">
-        <f aca="false">A1184+TIME(0,10,0)</f>
-        <v>43229.2152777787</v>
-      </c>
-      <c r="B1185" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1186" s="1" t="n">
-        <f aca="false">A1185+TIME(0,10,0)</f>
-        <v>43229.2222222232</v>
-      </c>
-      <c r="B1186" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1187" s="1" t="n">
-        <f aca="false">A1186+TIME(0,10,0)</f>
-        <v>43229.2291666676</v>
-      </c>
-      <c r="B1187" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1188" s="1" t="n">
-        <f aca="false">A1187+TIME(0,10,0)</f>
-        <v>43229.2361111121</v>
-      </c>
-      <c r="B1188" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1189" s="1" t="n">
-        <f aca="false">A1188+TIME(0,10,0)</f>
-        <v>43229.2430555565</v>
-      </c>
-      <c r="B1189" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1190" s="1" t="n">
-        <f aca="false">A1189+TIME(0,10,0)</f>
-        <v>43229.250000001</v>
-      </c>
-      <c r="B1190" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1191" s="1" t="n">
-        <f aca="false">A1190+TIME(0,10,0)</f>
-        <v>43229.2569444454</v>
-      </c>
-      <c r="B1191" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1192" s="1" t="n">
-        <f aca="false">A1191+TIME(0,10,0)</f>
-        <v>43229.2638888899</v>
-      </c>
-      <c r="B1192" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1193" s="1" t="n">
-        <f aca="false">A1192+TIME(0,10,0)</f>
-        <v>43229.2708333343</v>
-      </c>
-      <c r="B1193" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1194" s="1" t="n">
-        <f aca="false">A1193+TIME(0,10,0)</f>
-        <v>43229.2777777787</v>
-      </c>
-      <c r="B1194" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1195" s="1" t="n">
-        <f aca="false">A1194+TIME(0,10,0)</f>
-        <v>43229.2847222232</v>
-      </c>
-      <c r="B1195" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1196" s="1" t="n">
-        <f aca="false">A1195+TIME(0,10,0)</f>
-        <v>43229.2916666676</v>
-      </c>
-      <c r="B1196" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1197" s="1" t="n">
-        <f aca="false">A1196+TIME(0,10,0)</f>
-        <v>43229.2986111121</v>
-      </c>
-      <c r="B1197" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1198" s="1" t="n">
-        <f aca="false">A1197+TIME(0,10,0)</f>
-        <v>43229.3055555565</v>
-      </c>
-      <c r="B1198" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1199" s="1" t="n">
-        <f aca="false">A1198+TIME(0,10,0)</f>
-        <v>43229.312500001</v>
-      </c>
-      <c r="B1199" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1200" s="1" t="n">
-        <f aca="false">A1199+TIME(0,10,0)</f>
-        <v>43229.3194444454</v>
-      </c>
-      <c r="B1200" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1201" s="1" t="n">
-        <f aca="false">A1200+TIME(0,10,0)</f>
-        <v>43229.3263888899</v>
-      </c>
-      <c r="B1201" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1202" s="1" t="n">
-        <f aca="false">A1201+TIME(0,10,0)</f>
-        <v>43229.3333333343</v>
-      </c>
-      <c r="B1202" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1203" s="1" t="n">
-        <f aca="false">A1202+TIME(0,10,0)</f>
-        <v>43229.3402777788</v>
-      </c>
-      <c r="B1203" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1204" s="1" t="n">
-        <f aca="false">A1203+TIME(0,10,0)</f>
-        <v>43229.3472222232</v>
-      </c>
-      <c r="B1204" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1205" s="1" t="n">
-        <f aca="false">A1204+TIME(0,10,0)</f>
-        <v>43229.3541666676</v>
-      </c>
-      <c r="B1205" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1206" s="1" t="n">
-        <f aca="false">A1205+TIME(0,10,0)</f>
-        <v>43229.3611111121</v>
-      </c>
-      <c r="B1206" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1207" s="1" t="n">
-        <f aca="false">A1206+TIME(0,10,0)</f>
-        <v>43229.3680555565</v>
-      </c>
-      <c r="B1207" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1208" s="1" t="n">
-        <f aca="false">A1207+TIME(0,10,0)</f>
-        <v>43229.375000001</v>
-      </c>
-      <c r="B1208" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1209" s="1" t="n">
-        <f aca="false">A1208+TIME(0,10,0)</f>
-        <v>43229.3819444454</v>
-      </c>
-      <c r="B1209" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1210" s="1" t="n">
-        <f aca="false">A1209+TIME(0,10,0)</f>
-        <v>43229.3888888899</v>
-      </c>
-      <c r="B1210" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1211" s="1" t="n">
-        <f aca="false">A1210+TIME(0,10,0)</f>
-        <v>43229.3958333343</v>
-      </c>
-      <c r="B1211" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1212" s="1" t="n">
-        <f aca="false">A1211+TIME(0,10,0)</f>
-        <v>43229.4027777788</v>
-      </c>
-      <c r="B1212" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1213" s="1" t="n">
-        <f aca="false">A1212+TIME(0,10,0)</f>
-        <v>43229.4097222232</v>
-      </c>
-      <c r="B1213" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1214" s="1" t="n">
-        <f aca="false">A1213+TIME(0,10,0)</f>
-        <v>43229.4166666676</v>
-      </c>
-      <c r="B1214" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1215" s="1" t="n">
-        <f aca="false">A1214+TIME(0,10,0)</f>
-        <v>43229.4236111121</v>
-      </c>
-      <c r="B1215" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1216" s="1" t="n">
-        <f aca="false">A1215+TIME(0,10,0)</f>
-        <v>43229.4305555565</v>
-      </c>
-      <c r="B1216" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1217" s="1" t="n">
-        <f aca="false">A1216+TIME(0,10,0)</f>
-        <v>43229.437500001</v>
-      </c>
-      <c r="B1217" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1218" s="1" t="n">
-        <f aca="false">A1217+TIME(0,10,0)</f>
-        <v>43229.4444444454</v>
-      </c>
-      <c r="B1218" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1219" s="1" t="n">
-        <f aca="false">A1218+TIME(0,10,0)</f>
-        <v>43229.4513888899</v>
-      </c>
-      <c r="B1219" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1220" s="1" t="n">
-        <f aca="false">A1219+TIME(0,10,0)</f>
-        <v>43229.4583333343</v>
-      </c>
-      <c r="B1220" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1221" s="1" t="n">
-        <f aca="false">A1220+TIME(0,10,0)</f>
-        <v>43229.4652777788</v>
-      </c>
-      <c r="B1221" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1222" s="1" t="n">
-        <f aca="false">A1221+TIME(0,10,0)</f>
-        <v>43229.4722222232</v>
-      </c>
-      <c r="B1222" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1223" s="1" t="n">
-        <f aca="false">A1222+TIME(0,10,0)</f>
-        <v>43229.4791666677</v>
-      </c>
-      <c r="B1223" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1224" s="1" t="n">
-        <f aca="false">A1223+TIME(0,10,0)</f>
-        <v>43229.4861111121</v>
-      </c>
-      <c r="B1224" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1225" s="1" t="n">
-        <f aca="false">A1224+TIME(0,10,0)</f>
-        <v>43229.4930555565</v>
-      </c>
-      <c r="B1225" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1226" s="1" t="n">
-        <f aca="false">A1225+TIME(0,10,0)</f>
-        <v>43229.500000001</v>
-      </c>
-      <c r="B1226" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1227" s="1" t="n">
-        <f aca="false">A1226+TIME(0,10,0)</f>
-        <v>43229.5069444454</v>
-      </c>
-      <c r="B1227" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1228" s="1" t="n">
-        <f aca="false">A1227+TIME(0,10,0)</f>
-        <v>43229.5138888899</v>
-      </c>
-      <c r="B1228" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1229" s="1" t="n">
-        <f aca="false">A1228+TIME(0,10,0)</f>
-        <v>43229.5208333343</v>
-      </c>
-      <c r="B1229" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1230" s="1" t="n">
-        <f aca="false">A1229+TIME(0,10,0)</f>
-        <v>43229.5277777788</v>
-      </c>
-      <c r="B1230" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1231" s="1" t="n">
-        <f aca="false">A1230+TIME(0,10,0)</f>
-        <v>43229.5347222232</v>
-      </c>
-      <c r="B1231" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1232" s="1" t="n">
-        <f aca="false">A1231+TIME(0,10,0)</f>
-        <v>43229.5416666677</v>
-      </c>
-      <c r="B1232" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="1" t="n">
-        <f aca="false">A1232+TIME(0,10,0)</f>
-        <v>43229.5486111121</v>
-      </c>
-      <c r="B1233" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1234" s="1" t="n">
-        <f aca="false">A1233+TIME(0,10,0)</f>
-        <v>43229.5555555566</v>
-      </c>
-      <c r="B1234" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1235" s="1" t="n">
-        <f aca="false">A1234+TIME(0,10,0)</f>
-        <v>43229.562500001</v>
-      </c>
-      <c r="B1235" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1236" s="1" t="n">
-        <f aca="false">A1235+TIME(0,10,0)</f>
-        <v>43229.5694444454</v>
-      </c>
-      <c r="B1236" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1237" s="1" t="n">
-        <f aca="false">A1236+TIME(0,10,0)</f>
-        <v>43229.5763888899</v>
-      </c>
-      <c r="B1237" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1238" s="1" t="n">
-        <f aca="false">A1237+TIME(0,10,0)</f>
-        <v>43229.5833333343</v>
-      </c>
-      <c r="B1238" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1239" s="1" t="n">
-        <f aca="false">A1238+TIME(0,10,0)</f>
-        <v>43229.5902777788</v>
-      </c>
-      <c r="B1239" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1240" s="1" t="n">
-        <f aca="false">A1239+TIME(0,10,0)</f>
-        <v>43229.5972222232</v>
-      </c>
-      <c r="B1240" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1241" s="1" t="n">
-        <f aca="false">A1240+TIME(0,10,0)</f>
-        <v>43229.6041666677</v>
-      </c>
-      <c r="B1241" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1242" s="1" t="n">
-        <f aca="false">A1241+TIME(0,10,0)</f>
-        <v>43229.6111111121</v>
-      </c>
-      <c r="B1242" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1243" s="1" t="n">
-        <f aca="false">A1242+TIME(0,10,0)</f>
-        <v>43229.6180555566</v>
-      </c>
-      <c r="B1243" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1244" s="1" t="n">
-        <f aca="false">A1243+TIME(0,10,0)</f>
-        <v>43229.625000001</v>
-      </c>
-      <c r="B1244" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1245" s="1" t="n">
-        <f aca="false">A1244+TIME(0,10,0)</f>
-        <v>43229.6319444454</v>
-      </c>
-      <c r="B1245" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1246" s="1" t="n">
-        <f aca="false">A1245+TIME(0,10,0)</f>
-        <v>43229.6388888899</v>
-      </c>
-      <c r="B1246" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1247" s="1" t="n">
-        <f aca="false">A1246+TIME(0,10,0)</f>
-        <v>43229.6458333343</v>
-      </c>
-      <c r="B1247" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1248" s="1" t="n">
-        <f aca="false">A1247+TIME(0,10,0)</f>
-        <v>43229.6527777788</v>
-      </c>
-      <c r="B1248" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1249" s="1" t="n">
-        <f aca="false">A1248+TIME(0,10,0)</f>
-        <v>43229.6597222232</v>
-      </c>
-      <c r="B1249" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1250" s="1" t="n">
-        <f aca="false">A1249+TIME(0,10,0)</f>
-        <v>43229.6666666677</v>
-      </c>
-      <c r="B1250" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1251" s="1" t="n">
-        <f aca="false">A1250+TIME(0,10,0)</f>
-        <v>43229.6736111121</v>
-      </c>
-      <c r="B1251" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1252" s="1" t="n">
-        <f aca="false">A1251+TIME(0,10,0)</f>
-        <v>43229.6805555566</v>
-      </c>
-      <c r="B1252" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1253" s="1" t="n">
-        <f aca="false">A1252+TIME(0,10,0)</f>
-        <v>43229.687500001</v>
-      </c>
-      <c r="B1253" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1254" s="1" t="n">
-        <f aca="false">A1253+TIME(0,10,0)</f>
-        <v>43229.6944444455</v>
-      </c>
-      <c r="B1254" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1255" s="1" t="n">
-        <f aca="false">A1254+TIME(0,10,0)</f>
-        <v>43229.7013888899</v>
-      </c>
-      <c r="B1255" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1256" s="1" t="n">
-        <f aca="false">A1255+TIME(0,10,0)</f>
-        <v>43229.7083333344</v>
-      </c>
-      <c r="B1256" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1257" s="1" t="n">
-        <f aca="false">A1256+TIME(0,10,0)</f>
-        <v>43229.7152777788</v>
-      </c>
-      <c r="B1257" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1258" s="1" t="n">
-        <f aca="false">A1257+TIME(0,10,0)</f>
-        <v>43229.7222222232</v>
-      </c>
-      <c r="B1258" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1259" s="1" t="n">
-        <f aca="false">A1258+TIME(0,10,0)</f>
-        <v>43229.7291666677</v>
-      </c>
-      <c r="B1259" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1260" s="1" t="n">
-        <f aca="false">A1259+TIME(0,10,0)</f>
-        <v>43229.7361111121</v>
-      </c>
-      <c r="B1260" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1261" s="1" t="n">
-        <f aca="false">A1260+TIME(0,10,0)</f>
-        <v>43229.7430555566</v>
-      </c>
-      <c r="B1261" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1262" s="1" t="n">
-        <f aca="false">A1261+TIME(0,10,0)</f>
-        <v>43229.750000001</v>
-      </c>
-      <c r="B1262" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1263" s="1" t="n">
-        <f aca="false">A1262+TIME(0,10,0)</f>
-        <v>43229.7569444455</v>
-      </c>
-      <c r="B1263" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1264" s="1" t="n">
-        <f aca="false">A1263+TIME(0,10,0)</f>
-        <v>43229.7638888899</v>
-      </c>
-      <c r="B1264" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1265" s="1" t="n">
-        <f aca="false">A1264+TIME(0,10,0)</f>
-        <v>43229.7708333344</v>
-      </c>
-      <c r="B1265" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1266" s="1" t="n">
-        <f aca="false">A1265+TIME(0,10,0)</f>
-        <v>43229.7777777788</v>
-      </c>
-      <c r="B1266" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1267" s="1" t="n">
-        <f aca="false">A1266+TIME(0,10,0)</f>
-        <v>43229.7847222232</v>
-      </c>
-      <c r="B1267" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1268" s="1" t="n">
-        <f aca="false">A1267+TIME(0,10,0)</f>
-        <v>43229.7916666677</v>
-      </c>
-      <c r="B1268" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1269" s="1" t="n">
-        <f aca="false">A1268+TIME(0,10,0)</f>
-        <v>43229.7986111121</v>
-      </c>
-      <c r="B1269" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1270" s="1" t="n">
-        <f aca="false">A1269+TIME(0,10,0)</f>
-        <v>43229.8055555566</v>
-      </c>
-      <c r="B1270" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1271" s="1" t="n">
-        <f aca="false">A1270+TIME(0,10,0)</f>
-        <v>43229.812500001</v>
-      </c>
-      <c r="B1271" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1272" s="1" t="n">
-        <f aca="false">A1271+TIME(0,10,0)</f>
-        <v>43229.8194444455</v>
-      </c>
-      <c r="B1272" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1273" s="1" t="n">
-        <f aca="false">A1272+TIME(0,10,0)</f>
-        <v>43229.8263888899</v>
-      </c>
-      <c r="B1273" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1274" s="1" t="n">
-        <f aca="false">A1273+TIME(0,10,0)</f>
-        <v>43229.8333333344</v>
-      </c>
-      <c r="B1274" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1275" s="1" t="n">
-        <f aca="false">A1274+TIME(0,10,0)</f>
-        <v>43229.8402777788</v>
-      </c>
-      <c r="B1275" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1276" s="1" t="n">
-        <f aca="false">A1275+TIME(0,10,0)</f>
-        <v>43229.8472222233</v>
-      </c>
-      <c r="B1276" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1277" s="1" t="n">
-        <f aca="false">A1276+TIME(0,10,0)</f>
-        <v>43229.8541666677</v>
-      </c>
-      <c r="B1277" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1278" s="1" t="n">
-        <f aca="false">A1277+TIME(0,10,0)</f>
-        <v>43229.8611111121</v>
-      </c>
-      <c r="B1278" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1279" s="1" t="n">
-        <f aca="false">A1278+TIME(0,10,0)</f>
-        <v>43229.8680555566</v>
-      </c>
-      <c r="B1279" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1280" s="1" t="n">
-        <f aca="false">A1279+TIME(0,10,0)</f>
-        <v>43229.875000001</v>
-      </c>
-      <c r="B1280" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1281" s="1" t="n">
-        <f aca="false">A1280+TIME(0,10,0)</f>
-        <v>43229.8819444455</v>
-      </c>
-      <c r="B1281" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1282" s="1" t="n">
-        <f aca="false">A1281+TIME(0,10,0)</f>
-        <v>43229.8888888899</v>
-      </c>
-      <c r="B1282" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1283" s="1" t="n">
-        <f aca="false">A1282+TIME(0,10,0)</f>
-        <v>43229.8958333344</v>
-      </c>
-      <c r="B1283" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="1" t="n">
-        <f aca="false">A1283+TIME(0,10,0)</f>
-        <v>43229.9027777788</v>
-      </c>
-      <c r="B1284" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1285" s="1" t="n">
-        <f aca="false">A1284+TIME(0,10,0)</f>
-        <v>43229.9097222233</v>
-      </c>
-      <c r="B1285" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1286" s="1" t="n">
-        <f aca="false">A1285+TIME(0,10,0)</f>
-        <v>43229.9166666677</v>
-      </c>
-      <c r="B1286" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1287" s="1" t="n">
-        <f aca="false">A1286+TIME(0,10,0)</f>
-        <v>43229.9236111122</v>
-      </c>
-      <c r="B1287" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1288" s="1" t="n">
-        <f aca="false">A1287+TIME(0,10,0)</f>
-        <v>43229.9305555566</v>
-      </c>
-      <c r="B1288" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1289" s="1" t="n">
-        <f aca="false">A1288+TIME(0,10,0)</f>
-        <v>43229.937500001</v>
-      </c>
-      <c r="B1289" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1290" s="1" t="n">
-        <f aca="false">A1289+TIME(0,10,0)</f>
-        <v>43229.9444444455</v>
-      </c>
-      <c r="B1290" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1291" s="1" t="n">
-        <f aca="false">A1290+TIME(0,10,0)</f>
-        <v>43229.9513888899</v>
-      </c>
-      <c r="B1291" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1292" s="1" t="n">
-        <f aca="false">A1291+TIME(0,10,0)</f>
-        <v>43229.9583333344</v>
-      </c>
-      <c r="B1292" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1293" s="1" t="n">
-        <f aca="false">A1292+TIME(0,10,0)</f>
-        <v>43229.9652777788</v>
-      </c>
-      <c r="B1293" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1294" s="1" t="n">
-        <f aca="false">A1293+TIME(0,10,0)</f>
-        <v>43229.9722222233</v>
-      </c>
-      <c r="B1294" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1295" s="1" t="n">
-        <f aca="false">A1294+TIME(0,10,0)</f>
-        <v>43229.9791666677</v>
-      </c>
-      <c r="B1295" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1296" s="1" t="n">
-        <f aca="false">A1295+TIME(0,10,0)</f>
-        <v>43229.9861111122</v>
-      </c>
-      <c r="B1296" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1297" s="1" t="n">
-        <f aca="false">A1296+TIME(0,10,0)</f>
-        <v>43229.9930555566</v>
-      </c>
-      <c r="B1297" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
+++ b/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
@@ -130,8 +130,8 @@
   </sheetPr>
   <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A694" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A722" activeCellId="0" sqref="722:1297"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A327" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C348" activeCellId="0" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,787 +471,787 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">A37+TIME(0,10,0)</f>
         <v>43221.25</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">A38+TIME(0,10,0)</f>
         <v>43221.2569444445</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">A39+TIME(0,10,0)</f>
         <v>43221.2638888889</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+TIME(0,10,0)</f>
         <v>43221.2708333334</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="false">A41+TIME(0,10,0)</f>
         <v>43221.2777777778</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="false">A42+TIME(0,10,0)</f>
         <v>43221.2847222223</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">A43+TIME(0,10,0)</f>
         <v>43221.2916666667</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">A44+TIME(0,10,0)</f>
         <v>43221.2986111111</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">A45+TIME(0,10,0)</f>
         <v>43221.3055555556</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="false">A46+TIME(0,10,0)</f>
         <v>43221.3125</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">A47+TIME(0,10,0)</f>
         <v>43221.3194444445</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+TIME(0,10,0)</f>
         <v>43221.3263888889</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="false">A49+TIME(0,10,0)</f>
         <v>43221.3333333334</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="false">A50+TIME(0,10,0)</f>
         <v>43221.3402777778</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="false">A51+TIME(0,10,0)</f>
         <v>43221.3472222223</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="false">A52+TIME(0,10,0)</f>
         <v>43221.3541666667</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">A53+TIME(0,10,0)</f>
         <v>43221.3611111112</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+TIME(0,10,0)</f>
         <v>43221.3680555556</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="false">A55+TIME(0,10,0)</f>
         <v>43221.375</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+TIME(0,10,0)</f>
         <v>43221.3819444445</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">A57+TIME(0,10,0)</f>
         <v>43221.3888888889</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+TIME(0,10,0)</f>
         <v>43221.3958333334</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">A59+TIME(0,10,0)</f>
         <v>43221.4027777778</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">A60+TIME(0,10,0)</f>
         <v>43221.4097222223</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="false">A61+TIME(0,10,0)</f>
         <v>43221.4166666667</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+TIME(0,10,0)</f>
         <v>43221.4236111112</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+TIME(0,10,0)</f>
         <v>43221.4305555556</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+TIME(0,10,0)</f>
         <v>43221.4375000001</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+TIME(0,10,0)</f>
         <v>43221.4444444445</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+TIME(0,10,0)</f>
         <v>43221.4513888889</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+TIME(0,10,0)</f>
         <v>43221.4583333334</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+TIME(0,10,0)</f>
         <v>43221.4652777778</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+TIME(0,10,0)</f>
         <v>43221.4722222223</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+TIME(0,10,0)</f>
         <v>43221.4791666667</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+TIME(0,10,0)</f>
         <v>43221.4861111112</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <f aca="false">A72+TIME(0,10,0)</f>
         <v>43221.4930555556</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="false">A73+TIME(0,10,0)</f>
         <v>43221.5000000001</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="false">A74+TIME(0,10,0)</f>
         <v>43221.5069444445</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="false">A75+TIME(0,10,0)</f>
         <v>43221.513888889</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+TIME(0,10,0)</f>
         <v>43221.5208333334</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="false">A77+TIME(0,10,0)</f>
         <v>43221.5277777778</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="false">A78+TIME(0,10,0)</f>
         <v>43221.5347222223</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="false">A79+TIME(0,10,0)</f>
         <v>43221.5416666667</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <f aca="false">A80+TIME(0,10,0)</f>
         <v>43221.5486111112</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+TIME(0,10,0)</f>
         <v>43221.5555555556</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+TIME(0,10,0)</f>
         <v>43221.5625000001</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <f aca="false">A83+TIME(0,10,0)</f>
         <v>43221.5694444445</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="false">A84+TIME(0,10,0)</f>
         <v>43221.576388889</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+TIME(0,10,0)</f>
         <v>43221.5833333334</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <f aca="false">A86+TIME(0,10,0)</f>
         <v>43221.5902777778</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="false">A87+TIME(0,10,0)</f>
         <v>43221.5972222223</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="false">A88+TIME(0,10,0)</f>
         <v>43221.6041666667</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <f aca="false">A89+TIME(0,10,0)</f>
         <v>43221.6111111112</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">A90+TIME(0,10,0)</f>
         <v>43221.6180555556</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="false">A91+TIME(0,10,0)</f>
         <v>43221.6250000001</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="false">A92+TIME(0,10,0)</f>
         <v>43221.6319444445</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+TIME(0,10,0)</f>
         <v>43221.638888889</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="false">A94+TIME(0,10,0)</f>
         <v>43221.6458333334</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="false">A95+TIME(0,10,0)</f>
         <v>43221.6527777779</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+TIME(0,10,0)</f>
         <v>43221.6597222223</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="false">A97+TIME(0,10,0)</f>
         <v>43221.6666666667</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+TIME(0,10,0)</f>
         <v>43221.6736111112</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">A99+TIME(0,10,0)</f>
         <v>43221.6805555556</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <f aca="false">A100+TIME(0,10,0)</f>
         <v>43221.6875000001</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+TIME(0,10,0)</f>
         <v>43221.6944444445</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="false">A102+TIME(0,10,0)</f>
         <v>43221.701388889</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="false">A103+TIME(0,10,0)</f>
         <v>43221.7083333334</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="false">A104+TIME(0,10,0)</f>
         <v>43221.7152777779</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <f aca="false">A105+TIME(0,10,0)</f>
         <v>43221.7222222223</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <f aca="false">A106+TIME(0,10,0)</f>
         <v>43221.7291666668</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <f aca="false">A107+TIME(0,10,0)</f>
         <v>43221.7361111112</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <f aca="false">A108+TIME(0,10,0)</f>
         <v>43221.7430555556</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="false">A109+TIME(0,10,0)</f>
         <v>43221.7500000001</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="false">A110+TIME(0,10,0)</f>
         <v>43221.7569444445</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+TIME(0,10,0)</f>
         <v>43221.763888889</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+TIME(0,10,0)</f>
         <v>43221.7708333334</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">A113+TIME(0,10,0)</f>
         <v>43221.7777777779</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">A114+TIME(0,10,0)</f>
         <v>43221.7847222223</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+TIME(0,10,0)</f>
         <v>43221.7916666668</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+TIME(0,10,0)</f>
         <v>43221.7986111112</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">A117+TIME(0,10,0)</f>
         <v>43221.8055555556</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+TIME(0,10,0)</f>
         <v>43221.8125000001</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+TIME(0,10,0)</f>
         <v>43221.8194444445</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+TIME(0,10,0)</f>
         <v>43221.826388889</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+TIME(0,10,0)</f>
         <v>43221.8333333334</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+TIME(0,10,0)</f>
         <v>43221.8402777779</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+TIME(0,10,0)</f>
         <v>43221.8472222223</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,7 +1260,7 @@
         <v>43221.8541666668</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1269,7 @@
         <v>43221.8611111112</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,7 +1278,7 @@
         <v>43221.8680555557</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1287,7 @@
         <v>43221.8750000001</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,43 +1296,43 @@
         <v>43221.8819444446</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+TIME(0,10,0)</f>
         <v>43221.888888889</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+TIME(0,10,0)</f>
         <v>43221.8958333334</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">A131+TIME(0,10,0)</f>
         <v>43221.9027777779</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <f aca="false">A132+TIME(0,10,0)</f>
         <v>43221.9097222223</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1773,7 @@
         <v>43222.2500000001</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1782,7 @@
         <v>43222.2569444446</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1791,7 @@
         <v>43222.263888889</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1800,7 @@
         <v>43222.2708333335</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1809,7 @@
         <v>43222.2777777779</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>43222.2847222224</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>43222.2916666668</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1836,7 @@
         <v>43222.2986111113</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1845,7 @@
         <v>43222.3055555557</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>43222.3125000002</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1863,7 @@
         <v>43222.3194444446</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1872,7 @@
         <v>43222.326388889</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1881,7 @@
         <v>43222.3333333335</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1890,7 @@
         <v>43222.3402777779</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>43222.3472222224</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1908,7 @@
         <v>43222.3541666668</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>43222.3611111113</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>43222.3680555557</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1935,7 @@
         <v>43222.3750000002</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1944,7 @@
         <v>43222.3819444446</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>43222.3888888891</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1962,7 @@
         <v>43222.3958333335</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1971,7 @@
         <v>43222.4027777779</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1980,7 @@
         <v>43222.4097222224</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1989,7 @@
         <v>43222.4166666668</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1998,7 @@
         <v>43222.4236111113</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,7 +2007,7 @@
         <v>43222.4305555557</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>43222.4375000002</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>43222.4444444446</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2034,7 @@
         <v>43222.4513888891</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2043,7 @@
         <v>43222.4583333335</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2052,7 @@
         <v>43222.4652777779</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2061,7 @@
         <v>43222.4722222224</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2070,7 @@
         <v>43222.4791666668</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2079,7 @@
         <v>43222.4861111113</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2088,7 @@
         <v>43222.4930555557</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>43222.5000000002</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2106,7 @@
         <v>43222.5069444446</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2115,7 @@
         <v>43222.5138888891</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
         <v>43222.5208333335</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2133,7 @@
         <v>43222.527777778</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2142,7 @@
         <v>43222.5347222224</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>43222.5416666669</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2160,7 @@
         <v>43222.5486111113</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2169,7 @@
         <v>43222.5555555557</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,7 +2178,7 @@
         <v>43222.5625000002</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2187,7 @@
         <v>43222.5694444446</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2196,7 @@
         <v>43222.5763888891</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>43222.5833333335</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2214,7 @@
         <v>43222.590277778</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2223,7 @@
         <v>43222.5972222224</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>43222.6041666669</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2241,7 @@
         <v>43222.6111111113</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2250,7 @@
         <v>43222.6180555557</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2259,7 @@
         <v>43222.6250000002</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2268,7 @@
         <v>43222.6319444446</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2277,7 @@
         <v>43222.6388888891</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2286,7 @@
         <v>43222.6458333335</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2295,7 @@
         <v>43222.652777778</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2304,7 @@
         <v>43222.6597222224</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2313,7 @@
         <v>43222.6666666669</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2322,7 @@
         <v>43222.6736111113</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>43222.6805555558</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2340,7 @@
         <v>43222.6875000002</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2349,7 @@
         <v>43222.6944444446</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
         <v>43222.7013888891</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2367,7 @@
         <v>43222.7083333335</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2376,7 @@
         <v>43222.715277778</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2385,7 @@
         <v>43222.7222222224</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2394,7 @@
         <v>43222.7291666669</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2403,7 @@
         <v>43222.7361111113</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2412,7 @@
         <v>43222.7430555558</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2421,7 @@
         <v>43222.7500000002</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>43222.7569444447</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2439,7 @@
         <v>43222.7638888891</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2448,7 @@
         <v>43222.7708333335</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2457,7 @@
         <v>43222.777777778</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2466,7 @@
         <v>43222.7847222224</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,7 +2475,7 @@
         <v>43222.7916666669</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2484,7 @@
         <v>43222.7986111113</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2493,7 @@
         <v>43222.8055555558</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2502,7 @@
         <v>43222.8125000002</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,7 +2511,7 @@
         <v>43222.8194444447</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2520,7 @@
         <v>43222.8263888891</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>43222.8333333335</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2538,7 @@
         <v>43222.840277778</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2547,7 @@
         <v>43222.8472222224</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2556,7 @@
         <v>43222.8541666669</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2565,7 @@
         <v>43222.8611111113</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2574,7 @@
         <v>43222.8680555558</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2583,7 @@
         <v>43222.8750000002</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2592,7 @@
         <v>43222.8819444447</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2601,7 @@
         <v>43222.8888888891</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2610,7 @@
         <v>43222.8958333336</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2619,7 @@
         <v>43222.902777778</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>43222.9097222225</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3069,7 @@
         <v>43223.2500000003</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +3078,7 @@
         <v>43223.2569444447</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3087,7 @@
         <v>43223.2638888892</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3096,7 @@
         <v>43223.2708333336</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3105,7 @@
         <v>43223.277777778</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,7 +3114,7 @@
         <v>43223.2847222225</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,7 +3123,7 @@
         <v>43223.2916666669</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3132,7 @@
         <v>43223.2986111114</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3141,7 @@
         <v>43223.3055555558</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3150,7 @@
         <v>43223.3125000003</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,7 +3159,7 @@
         <v>43223.3194444447</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3168,7 @@
         <v>43223.3263888892</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3177,7 @@
         <v>43223.3333333336</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3186,7 @@
         <v>43223.340277778</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,7 +3195,7 @@
         <v>43223.3472222225</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,7 +3204,7 @@
         <v>43223.3541666669</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3213,7 @@
         <v>43223.3611111114</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3222,7 @@
         <v>43223.3680555558</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>43223.3750000003</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3240,7 @@
         <v>43223.3819444447</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3249,7 @@
         <v>43223.3888888892</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3258,7 @@
         <v>43223.3958333336</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3267,7 @@
         <v>43223.4027777781</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,7 +3276,7 @@
         <v>43223.4097222225</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3285,7 @@
         <v>43223.416666667</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3294,7 @@
         <v>43223.4236111114</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,7 +3303,7 @@
         <v>43223.4305555558</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,7 +3312,7 @@
         <v>43223.4375000003</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3321,7 @@
         <v>43223.4444444447</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3330,7 @@
         <v>43223.4513888892</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3339,7 @@
         <v>43223.4583333336</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3348,7 @@
         <v>43223.4652777781</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3357,7 @@
         <v>43223.4722222225</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3366,7 @@
         <v>43223.479166667</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,7 +3375,7 @@
         <v>43223.4861111114</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3384,7 @@
         <v>43223.4930555558</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3393,7 @@
         <v>43223.5000000003</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3402,7 @@
         <v>43223.5069444447</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,7 +3411,7 @@
         <v>43223.5138888892</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,7 +3420,7 @@
         <v>43223.5208333336</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3429,7 @@
         <v>43223.5277777781</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +3438,7 @@
         <v>43223.5347222225</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3447,7 @@
         <v>43223.541666667</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3456,7 @@
         <v>43223.5486111114</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3465,7 @@
         <v>43223.5555555559</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3474,7 @@
         <v>43223.5625000003</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3483,7 @@
         <v>43223.5694444448</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,7 +3492,7 @@
         <v>43223.5763888892</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3501,7 @@
         <v>43223.5833333336</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3510,7 @@
         <v>43223.5902777781</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,7 +3519,7 @@
         <v>43223.5972222225</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3528,7 @@
         <v>43223.604166667</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3537,7 @@
         <v>43223.6111111114</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,7 +3546,7 @@
         <v>43223.6180555559</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,7 +3555,7 @@
         <v>43223.6250000003</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,7 +3564,7 @@
         <v>43223.6319444448</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3573,7 @@
         <v>43223.6388888892</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3582,7 @@
         <v>43223.6458333336</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +3591,7 @@
         <v>43223.6527777781</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3600,7 @@
         <v>43223.6597222225</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3609,7 @@
         <v>43223.666666667</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3618,7 @@
         <v>43223.6736111114</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3627,7 @@
         <v>43223.6805555559</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,7 +3636,7 @@
         <v>43223.6875000003</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +3645,7 @@
         <v>43223.6944444448</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3654,7 @@
         <v>43223.7013888892</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,7 +3663,7 @@
         <v>43223.7083333337</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3672,7 @@
         <v>43223.7152777781</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3681,7 @@
         <v>43223.7222222225</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +3690,7 @@
         <v>43223.729166667</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3699,7 @@
         <v>43223.7361111114</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3708,7 @@
         <v>43223.7430555559</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3717,7 @@
         <v>43223.7500000003</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3726,7 @@
         <v>43223.7569444448</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +3735,7 @@
         <v>43223.7638888892</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3744,7 @@
         <v>43223.7708333337</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3753,7 @@
         <v>43223.7777777781</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,7 +3762,7 @@
         <v>43223.7847222226</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3771,7 @@
         <v>43223.791666667</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,7 +3780,7 @@
         <v>43223.7986111114</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,7 +3789,7 @@
         <v>43223.8055555559</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3798,7 @@
         <v>43223.8125000003</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3807,7 @@
         <v>43223.8194444448</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,7 +3816,7 @@
         <v>43223.8263888892</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3825,7 @@
         <v>43223.8333333337</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,7 +3834,7 @@
         <v>43223.8402777781</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,7 +3843,7 @@
         <v>43223.8472222226</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,7 +3852,7 @@
         <v>43223.854166667</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +3861,7 @@
         <v>43223.8611111114</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3870,7 @@
         <v>43223.8680555559</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3879,7 @@
         <v>43223.8750000003</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3888,7 @@
         <v>43223.8819444448</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,7 +3897,7 @@
         <v>43223.8888888892</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,7 +3906,7 @@
         <v>43223.8958333337</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,7 +3915,7 @@
         <v>43223.9027777781</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3924,7 @@
         <v>43223.9097222226</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,7 +4365,7 @@
         <v>43224.2500000004</v>
       </c>
       <c r="B470" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4374,7 @@
         <v>43224.2569444448</v>
       </c>
       <c r="B471" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,7 +4383,7 @@
         <v>43224.2638888893</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4392,7 @@
         <v>43224.2708333337</v>
       </c>
       <c r="B473" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,7 +4401,7 @@
         <v>43224.2777777782</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4410,7 @@
         <v>43224.2847222226</v>
       </c>
       <c r="B475" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4419,7 @@
         <v>43224.2916666671</v>
       </c>
       <c r="B476" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4428,7 @@
         <v>43224.2986111115</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4437,7 @@
         <v>43224.3055555559</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4446,7 @@
         <v>43224.3125000004</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,7 +4455,7 @@
         <v>43224.3194444448</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4464,7 @@
         <v>43224.3263888893</v>
       </c>
       <c r="B481" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,7 +4473,7 @@
         <v>43224.3333333337</v>
       </c>
       <c r="B482" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,7 +4482,7 @@
         <v>43224.3402777782</v>
       </c>
       <c r="B483" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,7 +4491,7 @@
         <v>43224.3472222226</v>
       </c>
       <c r="B484" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4500,7 @@
         <v>43224.3541666671</v>
       </c>
       <c r="B485" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4509,7 @@
         <v>43224.3611111115</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4518,7 @@
         <v>43224.3680555559</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,7 +4527,7 @@
         <v>43224.3750000004</v>
       </c>
       <c r="B488" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,7 +4536,7 @@
         <v>43224.3819444448</v>
       </c>
       <c r="B489" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,7 +4545,7 @@
         <v>43224.3888888893</v>
       </c>
       <c r="B490" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,7 +4554,7 @@
         <v>43224.3958333337</v>
       </c>
       <c r="B491" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4563,7 @@
         <v>43224.4027777782</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4572,7 @@
         <v>43224.4097222226</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4581,7 @@
         <v>43224.4166666671</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4590,7 @@
         <v>43224.4236111115</v>
       </c>
       <c r="B495" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4599,7 @@
         <v>43224.430555556</v>
       </c>
       <c r="B496" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4608,7 @@
         <v>43224.4375000004</v>
       </c>
       <c r="B497" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4617,7 @@
         <v>43224.4444444449</v>
       </c>
       <c r="B498" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,7 +4626,7 @@
         <v>43224.4513888893</v>
       </c>
       <c r="B499" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,7 +4635,7 @@
         <v>43224.4583333337</v>
       </c>
       <c r="B500" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4644,7 @@
         <v>43224.4652777782</v>
       </c>
       <c r="B501" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,7 +4653,7 @@
         <v>43224.4722222226</v>
       </c>
       <c r="B502" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4662,7 @@
         <v>43224.4791666671</v>
       </c>
       <c r="B503" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,7 +4671,7 @@
         <v>43224.4861111115</v>
       </c>
       <c r="B504" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4680,7 @@
         <v>43224.493055556</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +4689,7 @@
         <v>43224.5000000004</v>
       </c>
       <c r="B506" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4698,7 @@
         <v>43224.5069444449</v>
       </c>
       <c r="B507" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +4707,7 @@
         <v>43224.5138888893</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4716,7 @@
         <v>43224.5208333337</v>
       </c>
       <c r="B509" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,7 +4725,7 @@
         <v>43224.5277777782</v>
       </c>
       <c r="B510" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4734,7 @@
         <v>43224.5347222226</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,7 +4743,7 @@
         <v>43224.5416666671</v>
       </c>
       <c r="B512" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4752,7 @@
         <v>43224.5486111115</v>
       </c>
       <c r="B513" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +4761,7 @@
         <v>43224.555555556</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,7 +4770,7 @@
         <v>43224.5625000004</v>
       </c>
       <c r="B515" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +4779,7 @@
         <v>43224.5694444449</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,7 +4788,7 @@
         <v>43224.5763888893</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,7 +4797,7 @@
         <v>43224.5833333338</v>
       </c>
       <c r="B518" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4806,7 @@
         <v>43224.5902777782</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4815,7 @@
         <v>43224.5972222226</v>
       </c>
       <c r="B520" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4824,7 @@
         <v>43224.6041666671</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,7 +4833,7 @@
         <v>43224.6111111115</v>
       </c>
       <c r="B522" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>43224.618055556</v>
       </c>
       <c r="B523" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +4851,7 @@
         <v>43224.6250000004</v>
       </c>
       <c r="B524" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,7 +4860,7 @@
         <v>43224.6319444449</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +4869,7 @@
         <v>43224.6388888893</v>
       </c>
       <c r="B526" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4878,7 @@
         <v>43224.6458333338</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,7 +4887,7 @@
         <v>43224.6527777782</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4896,7 @@
         <v>43224.6597222227</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4905,7 @@
         <v>43224.6666666671</v>
       </c>
       <c r="B530" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4914,7 @@
         <v>43224.6736111115</v>
       </c>
       <c r="B531" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,7 +4923,7 @@
         <v>43224.680555556</v>
       </c>
       <c r="B532" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +4932,7 @@
         <v>43224.6875000004</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4941,7 @@
         <v>43224.6944444449</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +4950,7 @@
         <v>43224.7013888893</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +4959,7 @@
         <v>43224.7083333338</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4968,7 @@
         <v>43224.7152777782</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,7 +4977,7 @@
         <v>43224.7222222227</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,7 +4986,7 @@
         <v>43224.7291666671</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +4995,7 @@
         <v>43224.7361111116</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,7 +5004,7 @@
         <v>43224.743055556</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5013,7 @@
         <v>43224.7500000004</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5022,7 @@
         <v>43224.7569444449</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +5031,7 @@
         <v>43224.7638888893</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5040,7 @@
         <v>43224.7708333338</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,7 +5049,7 @@
         <v>43224.7777777782</v>
       </c>
       <c r="B546" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5058,7 @@
         <v>43224.7847222227</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5067,7 @@
         <v>43224.7916666671</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +5076,7 @@
         <v>43224.7986111116</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +5085,7 @@
         <v>43224.805555556</v>
       </c>
       <c r="B550" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +5094,7 @@
         <v>43224.8125000004</v>
       </c>
       <c r="B551" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5103,7 @@
         <v>43224.8194444449</v>
       </c>
       <c r="B552" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5112,7 @@
         <v>43224.8263888893</v>
       </c>
       <c r="B553" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,7 +5121,7 @@
         <v>43224.8333333338</v>
       </c>
       <c r="B554" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +5130,7 @@
         <v>43224.8402777782</v>
       </c>
       <c r="B555" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5139,7 @@
         <v>43224.8472222227</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5148,7 @@
         <v>43224.8541666671</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5157,7 @@
         <v>43224.8611111116</v>
       </c>
       <c r="B558" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,7 +5166,7 @@
         <v>43224.868055556</v>
       </c>
       <c r="B559" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,7 +5175,7 @@
         <v>43224.8750000004</v>
       </c>
       <c r="B560" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5184,7 @@
         <v>43224.8819444449</v>
       </c>
       <c r="B561" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5193,7 @@
         <v>43224.8888888893</v>
       </c>
       <c r="B562" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5202,7 @@
         <v>43224.8958333338</v>
       </c>
       <c r="B563" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +5211,7 @@
         <v>43224.9027777782</v>
       </c>
       <c r="B564" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5220,7 @@
         <v>43224.9097222227</v>
       </c>
       <c r="B565" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5661,7 @@
         <v>43225.2500000005</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5670,7 @@
         <v>43225.2569444449</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5679,7 @@
         <v>43225.2638888894</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5688,7 @@
         <v>43225.2708333338</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5697,7 @@
         <v>43225.2777777783</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,7 +5706,7 @@
         <v>43225.2847222227</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,7 +5715,7 @@
         <v>43225.2916666672</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,7 +5724,7 @@
         <v>43225.2986111116</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,7 +5733,7 @@
         <v>43225.3055555561</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +5742,7 @@
         <v>43225.3125000005</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +5751,7 @@
         <v>43225.319444445</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5760,7 @@
         <v>43225.3263888894</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,7 +5769,7 @@
         <v>43225.3333333338</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +5778,7 @@
         <v>43225.3402777783</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,7 +5787,7 @@
         <v>43225.3472222227</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5796,7 @@
         <v>43225.3541666672</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5805,7 @@
         <v>43225.3611111116</v>
       </c>
       <c r="B630" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5814,7 @@
         <v>43225.3680555561</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,7 +5823,7 @@
         <v>43225.3750000005</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5832,7 @@
         <v>43225.381944445</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,7 +5841,7 @@
         <v>43225.3888888894</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +5850,7 @@
         <v>43225.3958333338</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5859,7 @@
         <v>43225.4027777783</v>
       </c>
       <c r="B636" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,7 +5868,7 @@
         <v>43225.4097222227</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +5877,7 @@
         <v>43225.4166666672</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5886,7 @@
         <v>43225.4236111116</v>
       </c>
       <c r="B639" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,7 +5895,7 @@
         <v>43225.4305555561</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5904,7 @@
         <v>43225.4375000005</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +5913,7 @@
         <v>43225.444444445</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +5922,7 @@
         <v>43225.4513888894</v>
       </c>
       <c r="B643" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +5931,7 @@
         <v>43225.4583333339</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,7 +5940,7 @@
         <v>43225.4652777783</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,7 +5949,7 @@
         <v>43225.4722222227</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +5958,7 @@
         <v>43225.4791666672</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5967,7 @@
         <v>43225.4861111116</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +5976,7 @@
         <v>43225.4930555561</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,7 +5985,7 @@
         <v>43225.5000000005</v>
       </c>
       <c r="B650" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,7 +5994,7 @@
         <v>43225.506944445</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +6003,7 @@
         <v>43225.5138888894</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,7 +6012,7 @@
         <v>43225.5208333339</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6021,7 @@
         <v>43225.5277777783</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,7 +6030,7 @@
         <v>43225.5347222228</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,7 +6039,7 @@
         <v>43225.5416666672</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,7 +6048,7 @@
         <v>43225.5486111116</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6057,7 @@
         <v>43225.5555555561</v>
       </c>
       <c r="B658" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,7 +6066,7 @@
         <v>43225.5625000005</v>
       </c>
       <c r="B659" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6075,7 @@
         <v>43225.569444445</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6084,7 @@
         <v>43225.5763888894</v>
       </c>
       <c r="B661" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,7 +6093,7 @@
         <v>43225.5833333339</v>
       </c>
       <c r="B662" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,7 +6102,7 @@
         <v>43225.5902777783</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,7 +6111,7 @@
         <v>43225.5972222228</v>
       </c>
       <c r="B664" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6120,7 @@
         <v>43225.6041666672</v>
       </c>
       <c r="B665" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,7 +6129,7 @@
         <v>43225.6111111117</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,7 +6138,7 @@
         <v>43225.6180555561</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,7 +6147,7 @@
         <v>43225.6250000005</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6156,7 @@
         <v>43225.631944445</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6165,7 @@
         <v>43225.6388888894</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,7 +6174,7 @@
         <v>43225.6458333339</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6183,7 @@
         <v>43225.6527777783</v>
       </c>
       <c r="B672" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6192,7 @@
         <v>43225.6597222228</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,7 +6201,7 @@
         <v>43225.6666666672</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,7 +6210,7 @@
         <v>43225.6736111117</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,7 +6219,7 @@
         <v>43225.6805555561</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6228,7 @@
         <v>43225.6875000005</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,7 +6237,7 @@
         <v>43225.694444445</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,7 +6246,7 @@
         <v>43225.7013888894</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,7 +6255,7 @@
         <v>43225.7083333339</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,7 +6264,7 @@
         <v>43225.7152777783</v>
       </c>
       <c r="B681" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6273,7 +6273,7 @@
         <v>43225.7222222228</v>
       </c>
       <c r="B682" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6282,7 @@
         <v>43225.7291666672</v>
       </c>
       <c r="B683" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,7 +6291,7 @@
         <v>43225.7361111117</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,7 +6300,7 @@
         <v>43225.7430555561</v>
       </c>
       <c r="B685" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6309,7 @@
         <v>43225.7500000006</v>
       </c>
       <c r="B686" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6318,7 @@
         <v>43225.756944445</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,7 +6327,7 @@
         <v>43225.7638888894</v>
       </c>
       <c r="B688" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6336,7 @@
         <v>43225.7708333339</v>
       </c>
       <c r="B689" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,7 +6345,7 @@
         <v>43225.7777777783</v>
       </c>
       <c r="B690" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,7 +6354,7 @@
         <v>43225.7847222228</v>
       </c>
       <c r="B691" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,7 +6363,7 @@
         <v>43225.7916666672</v>
       </c>
       <c r="B692" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,7 +6372,7 @@
         <v>43225.7986111117</v>
       </c>
       <c r="B693" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +6381,7 @@
         <v>43225.8055555561</v>
       </c>
       <c r="B694" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6390,7 @@
         <v>43225.8125000006</v>
       </c>
       <c r="B695" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,7 +6399,7 @@
         <v>43225.819444445</v>
       </c>
       <c r="B696" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,7 +6408,7 @@
         <v>43225.8263888895</v>
       </c>
       <c r="B697" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,7 +6417,7 @@
         <v>43225.8333333339</v>
       </c>
       <c r="B698" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,7 +6426,7 @@
         <v>43225.8402777783</v>
       </c>
       <c r="B699" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6435,7 +6435,7 @@
         <v>43225.8472222228</v>
       </c>
       <c r="B700" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,7 +6444,7 @@
         <v>43225.8541666672</v>
       </c>
       <c r="B701" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,7 +6453,7 @@
         <v>43225.8611111117</v>
       </c>
       <c r="B702" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,7 +6462,7 @@
         <v>43225.8680555561</v>
       </c>
       <c r="B703" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,7 +6471,7 @@
         <v>43225.8750000006</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6480,7 @@
         <v>43225.881944445</v>
       </c>
       <c r="B705" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6489,7 @@
         <v>43225.8888888895</v>
       </c>
       <c r="B706" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,7 +6498,7 @@
         <v>43225.8958333339</v>
       </c>
       <c r="B707" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6507,7 @@
         <v>43225.9027777783</v>
       </c>
       <c r="B708" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
+++ b/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
@@ -130,8 +130,8 @@
   </sheetPr>
   <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A327" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C348" activeCellId="0" sqref="C348"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A698" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D710" activeCellId="0" sqref="D710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1773,7 +1773,7 @@
         <v>43222.2500000001</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1782,7 @@
         <v>43222.2569444446</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1791,7 @@
         <v>43222.263888889</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1800,7 @@
         <v>43222.2708333335</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1809,7 @@
         <v>43222.2777777779</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>43222.2847222224</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>43222.2916666668</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1836,7 @@
         <v>43222.2986111113</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1845,7 @@
         <v>43222.3055555557</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>43222.3125000002</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1863,7 @@
         <v>43222.3194444446</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1872,7 @@
         <v>43222.326388889</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1881,7 @@
         <v>43222.3333333335</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1890,7 @@
         <v>43222.3402777779</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>43222.3472222224</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1908,7 @@
         <v>43222.3541666668</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>43222.3611111113</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>43222.3680555557</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1935,7 @@
         <v>43222.3750000002</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1944,7 @@
         <v>43222.3819444446</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>43222.3888888891</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1962,7 @@
         <v>43222.3958333335</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1971,7 @@
         <v>43222.4027777779</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1980,7 @@
         <v>43222.4097222224</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1989,7 @@
         <v>43222.4166666668</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1998,7 @@
         <v>43222.4236111113</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,7 +2007,7 @@
         <v>43222.4305555557</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>43222.4375000002</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>43222.4444444446</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2034,7 @@
         <v>43222.4513888891</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2043,7 @@
         <v>43222.4583333335</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2052,7 @@
         <v>43222.4652777779</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2061,7 @@
         <v>43222.4722222224</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2070,7 @@
         <v>43222.4791666668</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2079,7 @@
         <v>43222.4861111113</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2088,7 @@
         <v>43222.4930555557</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>43222.5000000002</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2106,7 @@
         <v>43222.5069444446</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2115,7 @@
         <v>43222.5138888891</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
         <v>43222.5208333335</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2133,7 @@
         <v>43222.527777778</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2142,7 @@
         <v>43222.5347222224</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>43222.5416666669</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2160,7 @@
         <v>43222.5486111113</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2169,7 @@
         <v>43222.5555555557</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,7 +2178,7 @@
         <v>43222.5625000002</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2187,7 @@
         <v>43222.5694444446</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2196,7 @@
         <v>43222.5763888891</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>43222.5833333335</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2214,7 @@
         <v>43222.590277778</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2223,7 @@
         <v>43222.5972222224</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>43222.6041666669</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2241,7 @@
         <v>43222.6111111113</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2250,7 @@
         <v>43222.6180555557</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2259,7 @@
         <v>43222.6250000002</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2268,7 @@
         <v>43222.6319444446</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2277,7 @@
         <v>43222.6388888891</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2286,7 @@
         <v>43222.6458333335</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2295,7 @@
         <v>43222.652777778</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2304,7 @@
         <v>43222.6597222224</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2313,7 @@
         <v>43222.6666666669</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2322,7 @@
         <v>43222.6736111113</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>43222.6805555558</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2340,7 @@
         <v>43222.6875000002</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2349,7 @@
         <v>43222.6944444446</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
         <v>43222.7013888891</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2367,7 @@
         <v>43222.7083333335</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2376,7 @@
         <v>43222.715277778</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2385,7 @@
         <v>43222.7222222224</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2394,7 @@
         <v>43222.7291666669</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2403,7 @@
         <v>43222.7361111113</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2412,7 @@
         <v>43222.7430555558</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2421,7 @@
         <v>43222.7500000002</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>43222.7569444447</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2439,7 @@
         <v>43222.7638888891</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2448,7 @@
         <v>43222.7708333335</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2457,7 @@
         <v>43222.777777778</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2466,7 @@
         <v>43222.7847222224</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,7 +2475,7 @@
         <v>43222.7916666669</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2484,7 @@
         <v>43222.7986111113</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2493,7 @@
         <v>43222.8055555558</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2502,7 @@
         <v>43222.8125000002</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,7 +2511,7 @@
         <v>43222.8194444447</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2520,7 @@
         <v>43222.8263888891</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>43222.8333333335</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2538,7 @@
         <v>43222.840277778</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2547,7 @@
         <v>43222.8472222224</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2556,7 @@
         <v>43222.8541666669</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2565,7 @@
         <v>43222.8611111113</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2574,7 @@
         <v>43222.8680555558</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2583,7 @@
         <v>43222.8750000002</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2592,7 @@
         <v>43222.8819444447</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2601,7 @@
         <v>43222.8888888891</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2610,7 @@
         <v>43222.8958333336</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2619,7 @@
         <v>43222.902777778</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>43222.9097222225</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3069,7 @@
         <v>43223.2500000003</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +3078,7 @@
         <v>43223.2569444447</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3087,7 @@
         <v>43223.2638888892</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3096,7 @@
         <v>43223.2708333336</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3105,7 @@
         <v>43223.277777778</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,7 +3114,7 @@
         <v>43223.2847222225</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,7 +3123,7 @@
         <v>43223.2916666669</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3132,7 @@
         <v>43223.2986111114</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3141,7 @@
         <v>43223.3055555558</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3150,7 @@
         <v>43223.3125000003</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,7 +3159,7 @@
         <v>43223.3194444447</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3168,7 @@
         <v>43223.3263888892</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3177,7 @@
         <v>43223.3333333336</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3186,7 @@
         <v>43223.340277778</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,7 +3195,7 @@
         <v>43223.3472222225</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,7 +3204,7 @@
         <v>43223.3541666669</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3213,7 @@
         <v>43223.3611111114</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3222,7 @@
         <v>43223.3680555558</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>43223.3750000003</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3240,7 @@
         <v>43223.3819444447</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3249,7 @@
         <v>43223.3888888892</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3258,7 @@
         <v>43223.3958333336</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3267,7 @@
         <v>43223.4027777781</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,7 +3276,7 @@
         <v>43223.4097222225</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3285,7 @@
         <v>43223.416666667</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3294,7 @@
         <v>43223.4236111114</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,7 +3303,7 @@
         <v>43223.4305555558</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,7 +3312,7 @@
         <v>43223.4375000003</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3321,7 @@
         <v>43223.4444444447</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3330,7 @@
         <v>43223.4513888892</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3339,7 @@
         <v>43223.4583333336</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3348,7 @@
         <v>43223.4652777781</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3357,7 @@
         <v>43223.4722222225</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3366,7 @@
         <v>43223.479166667</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,7 +3375,7 @@
         <v>43223.4861111114</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3384,7 @@
         <v>43223.4930555558</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3393,7 @@
         <v>43223.5000000003</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3402,7 @@
         <v>43223.5069444447</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,7 +3411,7 @@
         <v>43223.5138888892</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,7 +3420,7 @@
         <v>43223.5208333336</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3429,7 @@
         <v>43223.5277777781</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +3438,7 @@
         <v>43223.5347222225</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3447,7 @@
         <v>43223.541666667</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3456,7 @@
         <v>43223.5486111114</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3465,7 @@
         <v>43223.5555555559</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3474,7 @@
         <v>43223.5625000003</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3483,7 @@
         <v>43223.5694444448</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,7 +3492,7 @@
         <v>43223.5763888892</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3501,7 @@
         <v>43223.5833333336</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3510,7 @@
         <v>43223.5902777781</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,7 +3519,7 @@
         <v>43223.5972222225</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3528,7 @@
         <v>43223.604166667</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3537,7 @@
         <v>43223.6111111114</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,7 +3546,7 @@
         <v>43223.6180555559</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,7 +3555,7 @@
         <v>43223.6250000003</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,7 +3564,7 @@
         <v>43223.6319444448</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3573,7 @@
         <v>43223.6388888892</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3582,7 @@
         <v>43223.6458333336</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +3591,7 @@
         <v>43223.6527777781</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3600,7 @@
         <v>43223.6597222225</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3609,7 @@
         <v>43223.666666667</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3618,7 @@
         <v>43223.6736111114</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3627,7 @@
         <v>43223.6805555559</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,7 +3636,7 @@
         <v>43223.6875000003</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +3645,7 @@
         <v>43223.6944444448</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3654,7 @@
         <v>43223.7013888892</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,7 +3663,7 @@
         <v>43223.7083333337</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3672,7 @@
         <v>43223.7152777781</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3681,7 @@
         <v>43223.7222222225</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +3690,7 @@
         <v>43223.729166667</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3699,7 @@
         <v>43223.7361111114</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3708,7 @@
         <v>43223.7430555559</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3717,7 @@
         <v>43223.7500000003</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3726,7 @@
         <v>43223.7569444448</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +3735,7 @@
         <v>43223.7638888892</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3744,7 @@
         <v>43223.7708333337</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3753,7 @@
         <v>43223.7777777781</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,7 +3762,7 @@
         <v>43223.7847222226</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3771,7 @@
         <v>43223.791666667</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,7 +3780,7 @@
         <v>43223.7986111114</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,7 +3789,7 @@
         <v>43223.8055555559</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3798,7 @@
         <v>43223.8125000003</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3807,7 @@
         <v>43223.8194444448</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,7 +3816,7 @@
         <v>43223.8263888892</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3825,7 @@
         <v>43223.8333333337</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,7 +3834,7 @@
         <v>43223.8402777781</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,7 +3843,7 @@
         <v>43223.8472222226</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,7 +3852,7 @@
         <v>43223.854166667</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +3861,7 @@
         <v>43223.8611111114</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3870,7 @@
         <v>43223.8680555559</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3879,7 @@
         <v>43223.8750000003</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3888,7 @@
         <v>43223.8819444448</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,7 +3897,7 @@
         <v>43223.8888888892</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,7 +3906,7 @@
         <v>43223.8958333337</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,7 +3915,7 @@
         <v>43223.9027777781</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3924,7 @@
         <v>43223.9097222226</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,7 +4365,7 @@
         <v>43224.2500000004</v>
       </c>
       <c r="B470" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4374,7 @@
         <v>43224.2569444448</v>
       </c>
       <c r="B471" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,7 +4383,7 @@
         <v>43224.2638888893</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4392,7 @@
         <v>43224.2708333337</v>
       </c>
       <c r="B473" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,7 +4401,7 @@
         <v>43224.2777777782</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4410,7 @@
         <v>43224.2847222226</v>
       </c>
       <c r="B475" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4419,7 @@
         <v>43224.2916666671</v>
       </c>
       <c r="B476" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4428,7 @@
         <v>43224.2986111115</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4437,7 @@
         <v>43224.3055555559</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4446,7 @@
         <v>43224.3125000004</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,7 +4455,7 @@
         <v>43224.3194444448</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4464,7 @@
         <v>43224.3263888893</v>
       </c>
       <c r="B481" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,7 +4473,7 @@
         <v>43224.3333333337</v>
       </c>
       <c r="B482" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,7 +4482,7 @@
         <v>43224.3402777782</v>
       </c>
       <c r="B483" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,7 +4491,7 @@
         <v>43224.3472222226</v>
       </c>
       <c r="B484" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4500,7 @@
         <v>43224.3541666671</v>
       </c>
       <c r="B485" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4509,7 @@
         <v>43224.3611111115</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4518,7 @@
         <v>43224.3680555559</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,7 +4527,7 @@
         <v>43224.3750000004</v>
       </c>
       <c r="B488" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,7 +4536,7 @@
         <v>43224.3819444448</v>
       </c>
       <c r="B489" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,7 +4545,7 @@
         <v>43224.3888888893</v>
       </c>
       <c r="B490" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,7 +4554,7 @@
         <v>43224.3958333337</v>
       </c>
       <c r="B491" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4563,7 @@
         <v>43224.4027777782</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4572,7 @@
         <v>43224.4097222226</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4581,7 @@
         <v>43224.4166666671</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4590,7 @@
         <v>43224.4236111115</v>
       </c>
       <c r="B495" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4599,7 @@
         <v>43224.430555556</v>
       </c>
       <c r="B496" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4608,7 @@
         <v>43224.4375000004</v>
       </c>
       <c r="B497" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4617,7 @@
         <v>43224.4444444449</v>
       </c>
       <c r="B498" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,7 +4626,7 @@
         <v>43224.4513888893</v>
       </c>
       <c r="B499" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,7 +4635,7 @@
         <v>43224.4583333337</v>
       </c>
       <c r="B500" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4644,7 @@
         <v>43224.4652777782</v>
       </c>
       <c r="B501" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,7 +4653,7 @@
         <v>43224.4722222226</v>
       </c>
       <c r="B502" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4662,7 @@
         <v>43224.4791666671</v>
       </c>
       <c r="B503" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,7 +4671,7 @@
         <v>43224.4861111115</v>
       </c>
       <c r="B504" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4680,7 @@
         <v>43224.493055556</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +4689,7 @@
         <v>43224.5000000004</v>
       </c>
       <c r="B506" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4698,7 @@
         <v>43224.5069444449</v>
       </c>
       <c r="B507" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +4707,7 @@
         <v>43224.5138888893</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4716,7 @@
         <v>43224.5208333337</v>
       </c>
       <c r="B509" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,7 +4725,7 @@
         <v>43224.5277777782</v>
       </c>
       <c r="B510" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4734,7 @@
         <v>43224.5347222226</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,7 +4743,7 @@
         <v>43224.5416666671</v>
       </c>
       <c r="B512" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4752,7 @@
         <v>43224.5486111115</v>
       </c>
       <c r="B513" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +4761,7 @@
         <v>43224.555555556</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,7 +4770,7 @@
         <v>43224.5625000004</v>
       </c>
       <c r="B515" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +4779,7 @@
         <v>43224.5694444449</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,7 +4788,7 @@
         <v>43224.5763888893</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,7 +4797,7 @@
         <v>43224.5833333338</v>
       </c>
       <c r="B518" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4806,7 @@
         <v>43224.5902777782</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4815,7 @@
         <v>43224.5972222226</v>
       </c>
       <c r="B520" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4824,7 @@
         <v>43224.6041666671</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,7 +4833,7 @@
         <v>43224.6111111115</v>
       </c>
       <c r="B522" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>43224.618055556</v>
       </c>
       <c r="B523" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +4851,7 @@
         <v>43224.6250000004</v>
       </c>
       <c r="B524" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,7 +4860,7 @@
         <v>43224.6319444449</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +4869,7 @@
         <v>43224.6388888893</v>
       </c>
       <c r="B526" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4878,7 @@
         <v>43224.6458333338</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,7 +4887,7 @@
         <v>43224.6527777782</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4896,7 @@
         <v>43224.6597222227</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4905,7 @@
         <v>43224.6666666671</v>
       </c>
       <c r="B530" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4914,7 @@
         <v>43224.6736111115</v>
       </c>
       <c r="B531" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,7 +4923,7 @@
         <v>43224.680555556</v>
       </c>
       <c r="B532" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +4932,7 @@
         <v>43224.6875000004</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4941,7 @@
         <v>43224.6944444449</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +4950,7 @@
         <v>43224.7013888893</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +4959,7 @@
         <v>43224.7083333338</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4968,7 @@
         <v>43224.7152777782</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,7 +4977,7 @@
         <v>43224.7222222227</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,7 +4986,7 @@
         <v>43224.7291666671</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +4995,7 @@
         <v>43224.7361111116</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,7 +5004,7 @@
         <v>43224.743055556</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5013,7 @@
         <v>43224.7500000004</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5022,7 @@
         <v>43224.7569444449</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +5031,7 @@
         <v>43224.7638888893</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5040,7 @@
         <v>43224.7708333338</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,7 +5049,7 @@
         <v>43224.7777777782</v>
       </c>
       <c r="B546" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5058,7 @@
         <v>43224.7847222227</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5067,7 @@
         <v>43224.7916666671</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +5076,7 @@
         <v>43224.7986111116</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +5085,7 @@
         <v>43224.805555556</v>
       </c>
       <c r="B550" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +5094,7 @@
         <v>43224.8125000004</v>
       </c>
       <c r="B551" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5103,7 @@
         <v>43224.8194444449</v>
       </c>
       <c r="B552" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5112,7 @@
         <v>43224.8263888893</v>
       </c>
       <c r="B553" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,7 +5121,7 @@
         <v>43224.8333333338</v>
       </c>
       <c r="B554" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +5130,7 @@
         <v>43224.8402777782</v>
       </c>
       <c r="B555" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5139,7 @@
         <v>43224.8472222227</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5148,7 @@
         <v>43224.8541666671</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5157,7 @@
         <v>43224.8611111116</v>
       </c>
       <c r="B558" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,7 +5166,7 @@
         <v>43224.868055556</v>
       </c>
       <c r="B559" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,7 +5175,7 @@
         <v>43224.8750000004</v>
       </c>
       <c r="B560" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5184,7 @@
         <v>43224.8819444449</v>
       </c>
       <c r="B561" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5193,7 @@
         <v>43224.8888888893</v>
       </c>
       <c r="B562" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5202,7 @@
         <v>43224.8958333338</v>
       </c>
       <c r="B563" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +5211,7 @@
         <v>43224.9027777782</v>
       </c>
       <c r="B564" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5220,7 @@
         <v>43224.9097222227</v>
       </c>
       <c r="B565" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5661,7 @@
         <v>43225.2500000005</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5670,7 @@
         <v>43225.2569444449</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5679,7 @@
         <v>43225.2638888894</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5688,7 @@
         <v>43225.2708333338</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5697,7 @@
         <v>43225.2777777783</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,7 +5706,7 @@
         <v>43225.2847222227</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,7 +5715,7 @@
         <v>43225.2916666672</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,7 +5724,7 @@
         <v>43225.2986111116</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,7 +5733,7 @@
         <v>43225.3055555561</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +5742,7 @@
         <v>43225.3125000005</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +5751,7 @@
         <v>43225.319444445</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5760,7 @@
         <v>43225.3263888894</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,7 +5769,7 @@
         <v>43225.3333333338</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +5778,7 @@
         <v>43225.3402777783</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,7 +5787,7 @@
         <v>43225.3472222227</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5796,7 @@
         <v>43225.3541666672</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5805,7 @@
         <v>43225.3611111116</v>
       </c>
       <c r="B630" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5814,7 @@
         <v>43225.3680555561</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,7 +5823,7 @@
         <v>43225.3750000005</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5832,7 @@
         <v>43225.381944445</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,7 +5841,7 @@
         <v>43225.3888888894</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +5850,7 @@
         <v>43225.3958333338</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5859,7 @@
         <v>43225.4027777783</v>
       </c>
       <c r="B636" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,7 +5868,7 @@
         <v>43225.4097222227</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +5877,7 @@
         <v>43225.4166666672</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5886,7 @@
         <v>43225.4236111116</v>
       </c>
       <c r="B639" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,7 +5895,7 @@
         <v>43225.4305555561</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5904,7 @@
         <v>43225.4375000005</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +5913,7 @@
         <v>43225.444444445</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +5922,7 @@
         <v>43225.4513888894</v>
       </c>
       <c r="B643" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +5931,7 @@
         <v>43225.4583333339</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,7 +5940,7 @@
         <v>43225.4652777783</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,7 +5949,7 @@
         <v>43225.4722222227</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +5958,7 @@
         <v>43225.4791666672</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5967,7 @@
         <v>43225.4861111116</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +5976,7 @@
         <v>43225.4930555561</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,7 +5985,7 @@
         <v>43225.5000000005</v>
       </c>
       <c r="B650" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,7 +5994,7 @@
         <v>43225.506944445</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +6003,7 @@
         <v>43225.5138888894</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,7 +6012,7 @@
         <v>43225.5208333339</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6021,7 @@
         <v>43225.5277777783</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,7 +6030,7 @@
         <v>43225.5347222228</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,7 +6039,7 @@
         <v>43225.5416666672</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,7 +6048,7 @@
         <v>43225.5486111116</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6057,7 @@
         <v>43225.5555555561</v>
       </c>
       <c r="B658" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,7 +6066,7 @@
         <v>43225.5625000005</v>
       </c>
       <c r="B659" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6075,7 @@
         <v>43225.569444445</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6084,7 @@
         <v>43225.5763888894</v>
       </c>
       <c r="B661" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,7 +6093,7 @@
         <v>43225.5833333339</v>
       </c>
       <c r="B662" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,7 +6102,7 @@
         <v>43225.5902777783</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,7 +6111,7 @@
         <v>43225.5972222228</v>
       </c>
       <c r="B664" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6120,7 @@
         <v>43225.6041666672</v>
       </c>
       <c r="B665" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,7 +6129,7 @@
         <v>43225.6111111117</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,7 +6138,7 @@
         <v>43225.6180555561</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,7 +6147,7 @@
         <v>43225.6250000005</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6156,7 @@
         <v>43225.631944445</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6165,7 @@
         <v>43225.6388888894</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,7 +6174,7 @@
         <v>43225.6458333339</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6183,7 @@
         <v>43225.6527777783</v>
       </c>
       <c r="B672" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6192,7 @@
         <v>43225.6597222228</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,7 +6201,7 @@
         <v>43225.6666666672</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,7 +6210,7 @@
         <v>43225.6736111117</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,7 +6219,7 @@
         <v>43225.6805555561</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6228,7 @@
         <v>43225.6875000005</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,7 +6237,7 @@
         <v>43225.694444445</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,7 +6246,7 @@
         <v>43225.7013888894</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,7 +6255,7 @@
         <v>43225.7083333339</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,7 +6264,7 @@
         <v>43225.7152777783</v>
       </c>
       <c r="B681" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6273,7 +6273,7 @@
         <v>43225.7222222228</v>
       </c>
       <c r="B682" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6282,7 @@
         <v>43225.7291666672</v>
       </c>
       <c r="B683" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,7 +6291,7 @@
         <v>43225.7361111117</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,7 +6300,7 @@
         <v>43225.7430555561</v>
       </c>
       <c r="B685" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6309,7 @@
         <v>43225.7500000006</v>
       </c>
       <c r="B686" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6318,7 @@
         <v>43225.756944445</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,7 +6327,7 @@
         <v>43225.7638888894</v>
       </c>
       <c r="B688" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6336,7 @@
         <v>43225.7708333339</v>
       </c>
       <c r="B689" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,7 +6345,7 @@
         <v>43225.7777777783</v>
       </c>
       <c r="B690" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,7 +6354,7 @@
         <v>43225.7847222228</v>
       </c>
       <c r="B691" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,7 +6363,7 @@
         <v>43225.7916666672</v>
       </c>
       <c r="B692" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,7 +6372,7 @@
         <v>43225.7986111117</v>
       </c>
       <c r="B693" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +6381,7 @@
         <v>43225.8055555561</v>
       </c>
       <c r="B694" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6390,7 @@
         <v>43225.8125000006</v>
       </c>
       <c r="B695" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,7 +6399,7 @@
         <v>43225.819444445</v>
       </c>
       <c r="B696" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,7 +6408,7 @@
         <v>43225.8263888895</v>
       </c>
       <c r="B697" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,7 +6417,7 @@
         <v>43225.8333333339</v>
       </c>
       <c r="B698" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,7 +6426,7 @@
         <v>43225.8402777783</v>
       </c>
       <c r="B699" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6435,7 +6435,7 @@
         <v>43225.8472222228</v>
       </c>
       <c r="B700" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,7 +6444,7 @@
         <v>43225.8541666672</v>
       </c>
       <c r="B701" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,7 +6453,7 @@
         <v>43225.8611111117</v>
       </c>
       <c r="B702" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,7 +6462,7 @@
         <v>43225.8680555561</v>
       </c>
       <c r="B703" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,7 +6471,7 @@
         <v>43225.8750000006</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6480,7 @@
         <v>43225.881944445</v>
       </c>
       <c r="B705" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6489,7 @@
         <v>43225.8888888895</v>
       </c>
       <c r="B706" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,7 +6498,7 @@
         <v>43225.8958333339</v>
       </c>
       <c r="B707" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6507,7 @@
         <v>43225.9027777783</v>
       </c>
       <c r="B708" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
+++ b/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
@@ -130,8 +130,8 @@
   </sheetPr>
   <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A698" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D710" activeCellId="0" sqref="D710"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D277" activeCellId="0" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1773,7 +1773,7 @@
         <v>43222.2500000001</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1782,7 @@
         <v>43222.2569444446</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1791,7 @@
         <v>43222.263888889</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1800,7 @@
         <v>43222.2708333335</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1809,7 @@
         <v>43222.2777777779</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>43222.2847222224</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>43222.2916666668</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1836,7 @@
         <v>43222.2986111113</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1845,7 @@
         <v>43222.3055555557</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>43222.3125000002</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1863,7 @@
         <v>43222.3194444446</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1872,7 @@
         <v>43222.326388889</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1881,7 @@
         <v>43222.3333333335</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1890,7 @@
         <v>43222.3402777779</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>43222.3472222224</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1908,7 @@
         <v>43222.3541666668</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>43222.3611111113</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>43222.3680555557</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1935,7 @@
         <v>43222.3750000002</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1944,7 @@
         <v>43222.3819444446</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>43222.3888888891</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1962,7 @@
         <v>43222.3958333335</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1971,7 @@
         <v>43222.4027777779</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1980,7 @@
         <v>43222.4097222224</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1989,7 @@
         <v>43222.4166666668</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1998,7 @@
         <v>43222.4236111113</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,7 +2007,7 @@
         <v>43222.4305555557</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>43222.4375000002</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>43222.4444444446</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2034,7 @@
         <v>43222.4513888891</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2043,7 @@
         <v>43222.4583333335</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2052,7 @@
         <v>43222.4652777779</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2061,7 @@
         <v>43222.4722222224</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2070,7 @@
         <v>43222.4791666668</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2079,7 @@
         <v>43222.4861111113</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2088,7 @@
         <v>43222.4930555557</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>43222.5000000002</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2106,7 @@
         <v>43222.5069444446</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2115,7 @@
         <v>43222.5138888891</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
         <v>43222.5208333335</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2133,7 @@
         <v>43222.527777778</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2142,7 @@
         <v>43222.5347222224</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>43222.5416666669</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2160,7 @@
         <v>43222.5486111113</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2169,7 @@
         <v>43222.5555555557</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,7 +2178,7 @@
         <v>43222.5625000002</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2187,7 @@
         <v>43222.5694444446</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2196,7 @@
         <v>43222.5763888891</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>43222.5833333335</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2214,7 @@
         <v>43222.590277778</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2223,7 @@
         <v>43222.5972222224</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>43222.6041666669</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2241,7 @@
         <v>43222.6111111113</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2250,7 @@
         <v>43222.6180555557</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2259,7 @@
         <v>43222.6250000002</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2268,7 @@
         <v>43222.6319444446</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2277,7 @@
         <v>43222.6388888891</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2286,7 @@
         <v>43222.6458333335</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2295,7 @@
         <v>43222.652777778</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2304,7 @@
         <v>43222.6597222224</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2313,7 @@
         <v>43222.6666666669</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2322,7 @@
         <v>43222.6736111113</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>43222.6805555558</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2340,7 @@
         <v>43222.6875000002</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2349,7 @@
         <v>43222.6944444446</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
         <v>43222.7013888891</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2367,7 @@
         <v>43222.7083333335</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2376,7 @@
         <v>43222.715277778</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2385,7 @@
         <v>43222.7222222224</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2394,7 @@
         <v>43222.7291666669</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2403,7 @@
         <v>43222.7361111113</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2412,7 @@
         <v>43222.7430555558</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2421,7 @@
         <v>43222.7500000002</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>43222.7569444447</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2439,7 @@
         <v>43222.7638888891</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2448,7 @@
         <v>43222.7708333335</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2457,7 @@
         <v>43222.777777778</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2466,7 @@
         <v>43222.7847222224</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,7 +2475,7 @@
         <v>43222.7916666669</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2484,7 @@
         <v>43222.7986111113</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2493,7 @@
         <v>43222.8055555558</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2502,7 @@
         <v>43222.8125000002</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,7 +2511,7 @@
         <v>43222.8194444447</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2520,7 @@
         <v>43222.8263888891</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>43222.8333333335</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2538,7 @@
         <v>43222.840277778</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2547,7 @@
         <v>43222.8472222224</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2556,7 @@
         <v>43222.8541666669</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2565,7 @@
         <v>43222.8611111113</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2574,7 @@
         <v>43222.8680555558</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2583,7 @@
         <v>43222.8750000002</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2592,7 @@
         <v>43222.8819444447</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2601,7 @@
         <v>43222.8888888891</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2610,7 @@
         <v>43222.8958333336</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2619,7 @@
         <v>43222.902777778</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>43222.9097222225</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
+++ b/EMS_simulation/data_input/energy_buy_price_10min_granularity.xlsx
@@ -130,8 +130,8 @@
   </sheetPr>
   <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D277" activeCellId="0" sqref="D277"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C187" activeCellId="0" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,7 +477,7 @@
         <v>43221.25</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +486,7 @@
         <v>43221.2569444445</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,7 +495,7 @@
         <v>43221.2638888889</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +504,7 @@
         <v>43221.2708333334</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +513,7 @@
         <v>43221.2777777778</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +522,7 @@
         <v>43221.2847222223</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +531,7 @@
         <v>43221.2916666667</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,7 +540,7 @@
         <v>43221.2986111111</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +549,7 @@
         <v>43221.3055555556</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +558,7 @@
         <v>43221.3125</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,7 +567,7 @@
         <v>43221.3194444445</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,7 +576,7 @@
         <v>43221.3263888889</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,7 +585,7 @@
         <v>43221.3333333334</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +594,7 @@
         <v>43221.3402777778</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +603,7 @@
         <v>43221.3472222223</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +612,7 @@
         <v>43221.3541666667</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +621,7 @@
         <v>43221.3611111112</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +630,7 @@
         <v>43221.3680555556</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +639,7 @@
         <v>43221.375</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +648,7 @@
         <v>43221.3819444445</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,7 +657,7 @@
         <v>43221.3888888889</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +666,7 @@
         <v>43221.3958333334</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,7 +675,7 @@
         <v>43221.4027777778</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,7 +684,7 @@
         <v>43221.4097222223</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +693,7 @@
         <v>43221.4166666667</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +702,7 @@
         <v>43221.4236111112</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +711,7 @@
         <v>43221.4305555556</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +720,7 @@
         <v>43221.4375000001</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +729,7 @@
         <v>43221.4444444445</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +738,7 @@
         <v>43221.4513888889</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +747,7 @@
         <v>43221.4583333334</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,7 +756,7 @@
         <v>43221.4652777778</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +765,7 @@
         <v>43221.4722222223</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +774,7 @@
         <v>43221.4791666667</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +783,7 @@
         <v>43221.4861111112</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +792,7 @@
         <v>43221.4930555556</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +801,7 @@
         <v>43221.5000000001</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +810,7 @@
         <v>43221.5069444445</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +819,7 @@
         <v>43221.513888889</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +828,7 @@
         <v>43221.5208333334</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +837,7 @@
         <v>43221.5277777778</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +846,7 @@
         <v>43221.5347222223</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +855,7 @@
         <v>43221.5416666667</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +864,7 @@
         <v>43221.5486111112</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +873,7 @@
         <v>43221.5555555556</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +882,7 @@
         <v>43221.5625000001</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +891,7 @@
         <v>43221.5694444445</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +900,7 @@
         <v>43221.576388889</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +909,7 @@
         <v>43221.5833333334</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,7 +918,7 @@
         <v>43221.5902777778</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +927,7 @@
         <v>43221.5972222223</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +936,7 @@
         <v>43221.6041666667</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +945,7 @@
         <v>43221.6111111112</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,7 +954,7 @@
         <v>43221.6180555556</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,7 +963,7 @@
         <v>43221.6250000001</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +972,7 @@
         <v>43221.6319444445</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +981,7 @@
         <v>43221.638888889</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +990,7 @@
         <v>43221.6458333334</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +999,7 @@
         <v>43221.6527777779</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1008,7 @@
         <v>43221.6597222223</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1017,7 @@
         <v>43221.6666666667</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1026,7 @@
         <v>43221.6736111112</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1035,7 @@
         <v>43221.6805555556</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,7 +1044,7 @@
         <v>43221.6875000001</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1053,7 @@
         <v>43221.6944444445</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1062,7 @@
         <v>43221.701388889</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1071,7 @@
         <v>43221.7083333334</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,7 +1080,7 @@
         <v>43221.7152777779</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1089,7 @@
         <v>43221.7222222223</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1098,7 @@
         <v>43221.7291666668</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1107,7 @@
         <v>43221.7361111112</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,7 +1116,7 @@
         <v>43221.7430555556</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,7 +1125,7 @@
         <v>43221.7500000001</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,7 +1134,7 @@
         <v>43221.7569444445</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1143,7 @@
         <v>43221.763888889</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1152,7 @@
         <v>43221.7708333334</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1161,7 @@
         <v>43221.7777777779</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1170,7 @@
         <v>43221.7847222223</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1179,7 @@
         <v>43221.7916666668</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,7 +1188,7 @@
         <v>43221.7986111112</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1197,7 @@
         <v>43221.8055555556</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1206,7 @@
         <v>43221.8125000001</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1215,7 @@
         <v>43221.8194444445</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1224,7 @@
         <v>43221.826388889</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1233,7 @@
         <v>43221.8333333334</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1242,7 @@
         <v>43221.8402777779</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1251,7 @@
         <v>43221.8472222223</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,7 +1260,7 @@
         <v>43221.8541666668</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1269,7 @@
         <v>43221.8611111112</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,7 +1278,7 @@
         <v>43221.8680555557</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1287,7 @@
         <v>43221.8750000001</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,7 +1296,7 @@
         <v>43221.8819444446</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1305,7 @@
         <v>43221.888888889</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1314,7 @@
         <v>43221.8958333334</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1323,7 @@
         <v>43221.9027777779</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,7 +1332,7 @@
         <v>43221.9097222223</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1773,7 @@
         <v>43222.2500000001</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1782,7 @@
         <v>43222.2569444446</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1791,7 @@
         <v>43222.263888889</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1800,7 @@
         <v>43222.2708333335</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1809,7 @@
         <v>43222.2777777779</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>43222.2847222224</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>43222.2916666668</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1836,7 @@
         <v>43222.2986111113</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1845,7 @@
         <v>43222.3055555557</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>43222.3125000002</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1863,7 @@
         <v>43222.3194444446</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1872,7 @@
         <v>43222.326388889</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1881,7 @@
         <v>43222.3333333335</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1890,7 @@
         <v>43222.3402777779</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>43222.3472222224</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1908,7 @@
         <v>43222.3541666668</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>43222.3611111113</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>43222.3680555557</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1935,7 @@
         <v>43222.3750000002</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1944,7 @@
         <v>43222.3819444446</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>43222.3888888891</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1962,7 @@
         <v>43222.3958333335</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1971,7 @@
         <v>43222.4027777779</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1980,7 @@
         <v>43222.4097222224</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1989,7 @@
         <v>43222.4166666668</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1998,7 @@
         <v>43222.4236111113</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,7 +2007,7 @@
         <v>43222.4305555557</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>43222.4375000002</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>43222.4444444446</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2034,7 @@
         <v>43222.4513888891</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2043,7 @@
         <v>43222.4583333335</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2052,7 @@
         <v>43222.4652777779</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2061,7 @@
         <v>43222.4722222224</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2070,7 @@
         <v>43222.4791666668</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2079,7 @@
         <v>43222.4861111113</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2088,7 @@
         <v>43222.4930555557</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>43222.5000000002</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2106,7 @@
         <v>43222.5069444446</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2115,7 @@
         <v>43222.5138888891</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
         <v>43222.5208333335</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2133,7 @@
         <v>43222.527777778</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2142,7 @@
         <v>43222.5347222224</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>43222.5416666669</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2160,7 @@
         <v>43222.5486111113</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2169,7 @@
         <v>43222.5555555557</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,7 +2178,7 @@
         <v>43222.5625000002</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2187,7 @@
         <v>43222.5694444446</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2196,7 @@
         <v>43222.5763888891</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>43222.5833333335</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2214,7 @@
         <v>43222.590277778</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2223,7 @@
         <v>43222.5972222224</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>43222.6041666669</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2241,7 @@
         <v>43222.6111111113</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2250,7 @@
         <v>43222.6180555557</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2259,7 @@
         <v>43222.6250000002</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2268,7 @@
         <v>43222.6319444446</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2277,7 @@
         <v>43222.6388888891</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2286,7 @@
         <v>43222.6458333335</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2295,7 @@
         <v>43222.652777778</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2304,7 @@
         <v>43222.6597222224</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2313,7 @@
         <v>43222.6666666669</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2322,7 @@
         <v>43222.6736111113</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>43222.6805555558</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2340,7 @@
         <v>43222.6875000002</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2349,7 @@
         <v>43222.6944444446</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
         <v>43222.7013888891</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2367,7 @@
         <v>43222.7083333335</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2376,7 @@
         <v>43222.715277778</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2385,7 @@
         <v>43222.7222222224</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2394,7 @@
         <v>43222.7291666669</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2403,7 @@
         <v>43222.7361111113</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2412,7 @@
         <v>43222.7430555558</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2421,7 @@
         <v>43222.7500000002</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>43222.7569444447</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2439,7 @@
         <v>43222.7638888891</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2448,7 @@
         <v>43222.7708333335</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2457,7 @@
         <v>43222.777777778</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2466,7 @@
         <v>43222.7847222224</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,7 +2475,7 @@
         <v>43222.7916666669</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2484,7 @@
         <v>43222.7986111113</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2493,7 @@
         <v>43222.8055555558</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2502,7 @@
         <v>43222.8125000002</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,7 +2511,7 @@
         <v>43222.8194444447</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2520,7 @@
         <v>43222.8263888891</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>43222.8333333335</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2538,7 @@
         <v>43222.840277778</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2547,7 @@
         <v>43222.8472222224</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2556,7 @@
         <v>43222.8541666669</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2565,7 @@
         <v>43222.8611111113</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2574,7 @@
         <v>43222.8680555558</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2583,7 @@
         <v>43222.8750000002</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2592,7 @@
         <v>43222.8819444447</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2601,7 @@
         <v>43222.8888888891</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2610,7 @@
         <v>43222.8958333336</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2619,7 @@
         <v>43222.902777778</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>43222.9097222225</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
